--- a/Excel_obliczenia.xlsx
+++ b/Excel_obliczenia.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Projekty\Studia\VI_semestr\Ekonometria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DBFEA2-97B0-4BBF-8515-C3DD161AC3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A359454B-8260-44B5-ADCD-38CEB3114805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wstępne_odrzucenie" sheetId="8" r:id="rId1"/>
+    <sheet name="Hellwig_1" sheetId="11" r:id="rId2"/>
+    <sheet name="Regresja_hellwig1" sheetId="10" r:id="rId3"/>
+    <sheet name="Hellwig_2" sheetId="9" r:id="rId4"/>
+    <sheet name="Regresja_hellwig2" sheetId="12" r:id="rId5"/>
+    <sheet name="Hellwig_excel" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="88">
   <si>
     <t>Współczynnik zmienności</t>
   </si>
@@ -46,12 +51,6 @@
     <t>Współćzynnik korelacji Pearsona</t>
   </si>
   <si>
-    <t>większy niż 15%</t>
-  </si>
-  <si>
-    <t>wieksza niż 75%</t>
-  </si>
-  <si>
     <t>BABANAICSRETSAUS</t>
   </si>
   <si>
@@ -161,17 +160,159 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>CPIAUCSL</t>
+  </si>
+  <si>
+    <t>Consumer Price Index for All Urban Consumers: All Items in U.S. City Average, Index 1982-1984=100, Annual, Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>większy niż 10%</t>
+  </si>
+  <si>
+    <t>wiekszy niż 70%</t>
+  </si>
+  <si>
+    <t>University of Michigan: Inflation Expectation, Percent, Annual, Not Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>PODSUMOWANIE - WYJŚCIE</t>
+  </si>
+  <si>
+    <t>Statystyki regresji</t>
+  </si>
+  <si>
+    <t>Wielokrotność R</t>
+  </si>
+  <si>
+    <t>R kwadrat</t>
+  </si>
+  <si>
+    <t>Dopasowany R kwadrat</t>
+  </si>
+  <si>
+    <t>Błąd standardowy</t>
+  </si>
+  <si>
+    <t>Obserwacje</t>
+  </si>
+  <si>
+    <t>ANALIZA WARIANCJI</t>
+  </si>
+  <si>
+    <t>Regresja</t>
+  </si>
+  <si>
+    <t>Resztkowy</t>
+  </si>
+  <si>
+    <t>Razem</t>
+  </si>
+  <si>
+    <t>Przecięcie</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Istotność F</t>
+  </si>
+  <si>
+    <t>Współczynniki</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>Wartość-p</t>
+  </si>
+  <si>
+    <t>Dolne 95%</t>
+  </si>
+  <si>
+    <t>Górne 95%</t>
+  </si>
+  <si>
+    <t>Dolne 95,0%</t>
+  </si>
+  <si>
+    <t>Górne 95,0%</t>
+  </si>
+  <si>
+    <t>Median Sales Price of Houses Sold for the United States, Dollars, Annual, Not Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>MSPUS</t>
+  </si>
+  <si>
+    <t>Producer Price Index by Industry: Concrete Block and Brick Manufacturing: Concrete Brick, Index Jun 1981=100, Annual, Not Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>PCU32733132733106</t>
+  </si>
+  <si>
+    <t>Producer Price Index by Industry: Cement and Concrete Product Manufacturing, Index Dec 2003=100, Annual, Not Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>PCU32733273</t>
+  </si>
+  <si>
+    <t>Na podstawie metody Hellwiga w R wybieram 3 zmienne</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>Na podstawie metody Hellwiga w R wybieram 5 zmiennych</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>x9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +370,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,8 +492,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -401,37 +600,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -489,6 +657,57 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -513,39 +732,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,30 +758,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="12" borderId="8" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -593,97 +779,283 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="12" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="7" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,15 +1352,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362B206C-BC67-475E-A365-4B0E4AB8687F}">
-  <dimension ref="A1:AD18"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" style="34" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
     <col min="3" max="25" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1006,1341 +1378,5436 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="29"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="101"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3">
+        <v>36526</v>
+      </c>
+      <c r="D2" s="3">
+        <v>36892</v>
+      </c>
+      <c r="E2" s="3">
+        <v>37257</v>
+      </c>
+      <c r="F2" s="3">
+        <v>37622</v>
+      </c>
+      <c r="G2" s="3">
+        <v>37987</v>
+      </c>
+      <c r="H2" s="3">
+        <v>38353</v>
+      </c>
+      <c r="I2" s="3">
+        <v>38718</v>
+      </c>
+      <c r="J2" s="3">
+        <v>39083</v>
+      </c>
+      <c r="K2" s="3">
+        <v>39448</v>
+      </c>
+      <c r="L2" s="3">
+        <v>39814</v>
+      </c>
+      <c r="M2" s="3">
+        <v>40179</v>
+      </c>
+      <c r="N2" s="3">
+        <v>40544</v>
+      </c>
+      <c r="O2" s="3">
+        <v>40909</v>
+      </c>
+      <c r="P2" s="3">
+        <v>41275</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>41640</v>
+      </c>
+      <c r="R2" s="3">
+        <v>42005</v>
+      </c>
+      <c r="S2" s="3">
+        <v>42370</v>
+      </c>
+      <c r="T2" s="3">
+        <v>42736</v>
+      </c>
+      <c r="U2" s="3">
+        <v>43101</v>
+      </c>
+      <c r="V2" s="3">
+        <v>43466</v>
+      </c>
+      <c r="W2" s="3">
+        <v>43831</v>
+      </c>
+      <c r="X2" s="3">
+        <v>44197</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>44562</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="10">
-        <v>36526</v>
-      </c>
-      <c r="D2" s="10">
-        <v>36892</v>
-      </c>
-      <c r="E2" s="10">
-        <v>37257</v>
-      </c>
-      <c r="F2" s="10">
-        <v>37622</v>
-      </c>
-      <c r="G2" s="10">
-        <v>37987</v>
-      </c>
-      <c r="H2" s="10">
-        <v>38353</v>
-      </c>
-      <c r="I2" s="10">
-        <v>38718</v>
-      </c>
-      <c r="J2" s="10">
-        <v>39083</v>
-      </c>
-      <c r="K2" s="10">
-        <v>39448</v>
-      </c>
-      <c r="L2" s="10">
-        <v>39814</v>
-      </c>
-      <c r="M2" s="10">
-        <v>40179</v>
-      </c>
-      <c r="N2" s="10">
-        <v>40544</v>
-      </c>
-      <c r="O2" s="10">
-        <v>40909</v>
-      </c>
-      <c r="P2" s="10">
-        <v>41275</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>41640</v>
-      </c>
-      <c r="R2" s="10">
-        <v>42005</v>
-      </c>
-      <c r="S2" s="10">
-        <v>42370</v>
-      </c>
-      <c r="T2" s="10">
-        <v>42736</v>
-      </c>
-      <c r="U2" s="10">
-        <v>43101</v>
-      </c>
-      <c r="V2" s="10">
-        <v>43466</v>
-      </c>
-      <c r="W2" s="10">
-        <v>43831</v>
-      </c>
-      <c r="X2" s="10">
-        <v>44197</v>
-      </c>
-      <c r="Y2" s="11">
-        <v>44562</v>
-      </c>
-      <c r="Z2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="51" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="13" t="e">
+      <c r="A3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="D3" s="13" t="e">
+      <c r="D3" s="6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E3" s="13" t="e">
+      <c r="E3" s="6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F3" s="13" t="e">
+      <c r="F3" s="6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="G3" s="13" t="e">
+      <c r="G3" s="6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="10">
         <v>25279.416666666668</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="10">
         <v>25927.916666666668</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="10">
         <v>27116.416666666668</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="10">
         <v>27639.416666666668</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="10">
         <v>27685.75</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="10">
         <v>28346.416666666668</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="10">
         <v>29929.416666666668</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="10">
         <v>29561.75</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="10">
         <v>30312.416666666668</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="10">
         <v>30335.833333333332</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="10">
         <v>31814.833333333332</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="10">
         <v>34700.333333333336</v>
       </c>
-      <c r="T3" s="19">
+      <c r="T3" s="10">
         <v>37479</v>
       </c>
-      <c r="U3" s="19">
+      <c r="U3" s="10">
         <v>40278.833333333336</v>
       </c>
-      <c r="V3" s="19">
+      <c r="V3" s="10">
         <v>43550.75</v>
       </c>
-      <c r="W3" s="19">
+      <c r="W3" s="10">
         <v>69482.666666666672</v>
       </c>
-      <c r="X3" s="19">
+      <c r="X3" s="10">
         <v>81401.75</v>
       </c>
-      <c r="Y3" s="15" t="e">
+      <c r="Y3" s="8" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Z3" s="30">
-        <f>AVERAGE(H3:X3)</f>
+      <c r="Z3" s="16">
+        <f t="shared" ref="Z3:Z18" si="0">AVERAGE(H3:X3)</f>
         <v>36520.171568627447</v>
       </c>
-      <c r="AA3" s="31">
-        <f>_xlfn.STDEV.S(H3:X3)</f>
+      <c r="AA3" s="17">
+        <f t="shared" ref="AA3:AA13" si="1">_xlfn.STDEV.S(H3:X3)</f>
         <v>15632.810390803646</v>
       </c>
-      <c r="AB3" s="49">
+      <c r="AB3" s="24">
         <f>AA3/Z3</f>
         <v>0.42805960978104957</v>
       </c>
-      <c r="AC3" s="50">
-        <f>PEARSON($H$13:$X$13,H3:X3)</f>
-        <v>0.88740831368329376</v>
-      </c>
-      <c r="AD3" s="52" t="s">
-        <v>40</v>
+      <c r="AC3" s="25">
+        <f>PEARSON($H$17:$X$17,H3:X3)</f>
+        <v>0.84657429532225459</v>
+      </c>
+      <c r="AD3" s="27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="A4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7">
         <v>1171489.1666666667</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="7">
         <v>1165430</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="7">
         <v>1119931</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="7">
         <v>1143340.6666666667</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="7">
         <v>1198071.75</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="10">
         <v>1278679</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="10">
         <v>1372072.25</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="10">
         <v>1446353.0833333333</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="10">
         <v>1513006.75</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="10">
         <v>1363445.5833333333</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="10">
         <v>1382707.1666666667</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="10">
         <v>1521965.6666666667</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="10">
         <v>1619087.0833333333</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="10">
         <v>1688290.6666666667</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="10">
         <v>1769028</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="10">
         <v>1814472.5833333333</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="10">
         <v>1837068.9166666667</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="10">
         <v>1886857.25</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="10">
         <v>1960528.8333333333</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="10">
         <v>2043902.3333333333</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="10">
         <v>1980857.9166666667</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="10">
         <v>2076959.8333333333</v>
       </c>
-      <c r="Y4" s="15" t="e">
+      <c r="Y4" s="8" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Z4" s="30">
-        <f>AVERAGE(H4:X4)</f>
+      <c r="Z4" s="16">
+        <f t="shared" si="0"/>
         <v>1679722.5245098039</v>
       </c>
-      <c r="AA4" s="31">
-        <f>_xlfn.STDEV.S(H4:X4)</f>
+      <c r="AA4" s="17">
+        <f t="shared" si="1"/>
         <v>263199.23725850164</v>
       </c>
-      <c r="AB4" s="36">
-        <f t="shared" ref="AB4:AB14" si="0">AA4/Z4</f>
+      <c r="AB4" s="24">
+        <f t="shared" ref="AB4:AB18" si="2">AA4/Z4</f>
         <v>0.15669209254386315</v>
       </c>
-      <c r="AC4" s="46">
-        <f t="shared" ref="AC4:AC14" si="1">PEARSON($H$13:$X$13,H4:X4)</f>
-        <v>0.70924100011777513</v>
-      </c>
-      <c r="AD4" s="53" t="s">
-        <v>41</v>
+      <c r="AC4" s="25">
+        <f>PEARSON($H$17:$X$17,H4:X4)</f>
+        <v>0.92400942539105047</v>
+      </c>
+      <c r="AD4" s="27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="A5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
         <v>1878.2249999999999</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="9">
         <v>1853.2333333333333</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="9">
         <v>1918.9166666666667</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="9">
         <v>1856.3833333333334</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="9">
         <v>1866.875</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="11">
         <v>1834.5416666666667</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="11">
         <v>1808.2666666666667</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="11">
         <v>1925.325</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="11">
         <v>1939.7583333333334</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="11">
         <v>1909.175</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="11">
         <v>2007.2333333333333</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="11">
         <v>2039.7833333333333</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="11">
         <v>2128.2166666666667</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="11">
         <v>2179.6</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="11">
         <v>2216.1166666666668</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="11">
         <v>2270.3166666666666</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="11">
         <v>2287.0416666666665</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="11">
         <v>2261.8666666666668</v>
       </c>
-      <c r="U5" s="20">
+      <c r="U5" s="11">
         <v>2511.5666666666666</v>
       </c>
-      <c r="V5" s="20">
+      <c r="V5" s="11">
         <v>2594.3333333333335</v>
       </c>
-      <c r="W5" s="20">
+      <c r="W5" s="11">
         <v>2539.35</v>
       </c>
-      <c r="X5" s="20">
+      <c r="X5" s="11">
         <v>2523.6583333333333</v>
       </c>
-      <c r="Y5" s="15" t="e">
+      <c r="Y5" s="8" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Z5" s="30">
-        <f>AVERAGE(H5:X5)</f>
+      <c r="Z5" s="16">
+        <f t="shared" si="0"/>
         <v>2175.0676470588232</v>
       </c>
-      <c r="AA5" s="31">
-        <f>_xlfn.STDEV.S(H5:X5)</f>
+      <c r="AA5" s="17">
+        <f t="shared" si="1"/>
         <v>257.59579260688889</v>
       </c>
-      <c r="AB5" s="47">
-        <f t="shared" si="0"/>
+      <c r="AB5" s="24">
+        <f>AA5/Z5</f>
         <v>0.11843116371815648</v>
       </c>
-      <c r="AC5" s="46">
-        <f t="shared" si="1"/>
-        <v>0.69520047458452405</v>
-      </c>
-      <c r="AD5" s="53" t="s">
-        <v>41</v>
+      <c r="AC5" s="25">
+        <f>PEARSON($H$17:$X$17,H5:X5)</f>
+        <v>0.88160402530214166</v>
+      </c>
+      <c r="AD5" s="27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="A6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
         <v>466061619.66666669</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="7">
         <v>466084606.33333331</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="7">
         <v>446600209.25</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="7">
         <v>476901310.83333331</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="7">
         <v>459583645.08333331</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="10">
         <v>450259280.75</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="10">
         <v>452674812.5</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="10">
         <v>484118951.5</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="10">
         <v>516191550.83333331</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="10">
         <v>494566700.33333331</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="10">
         <v>536219861.91666669</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="10">
         <v>549325619.16666663</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="10">
         <v>564247807.83333337</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="10">
         <v>569233956.41666663</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="10">
         <v>561011297.75</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="10">
         <v>549434318.16666663</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="10">
         <v>547682460.58333337</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="10">
         <v>552189472</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="10">
         <v>535564962.25</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6" s="10">
         <v>545346980.33333337</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="10">
         <v>184028006.5</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="10">
         <v>303607260.58333331</v>
       </c>
-      <c r="Y6" s="15" t="e">
+      <c r="Y6" s="8" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Z6" s="30">
-        <f>AVERAGE(H6:X6)</f>
+      <c r="Z6" s="16">
+        <f t="shared" si="0"/>
         <v>493864899.96568626</v>
       </c>
-      <c r="AA6" s="31">
-        <f>_xlfn.STDEV.S(H6:X6)</f>
+      <c r="AA6" s="17">
+        <f t="shared" si="1"/>
         <v>103131277.22438923</v>
       </c>
-      <c r="AB6" s="36">
-        <f t="shared" si="0"/>
+      <c r="AB6" s="19">
+        <f t="shared" si="2"/>
         <v>0.20882487747469963</v>
       </c>
-      <c r="AC6" s="46">
-        <f t="shared" si="1"/>
-        <v>-0.6860254962818535</v>
-      </c>
-      <c r="AD6" s="53" t="s">
-        <v>41</v>
+      <c r="AC6" s="22">
+        <f t="shared" ref="AC6:AC18" si="3">PEARSON($H$17:$X$17,H6:X6)</f>
+        <v>-0.44210879606315034</v>
+      </c>
+      <c r="AD6" s="28" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="A7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9">
         <v>269.5</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="9">
         <v>271.3</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="9">
         <v>271.7</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="9">
         <v>273</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="9">
         <v>276</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="11">
         <v>275.5</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="11">
         <v>275.10000000000002</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="11">
         <v>272.60000000000002</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="11">
         <v>271.3</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="11">
         <v>269.5</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="11">
         <v>267.39999999999998</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="11">
         <v>264.60000000000002</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="11">
         <v>261.8</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="11">
         <v>260.5</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="11">
         <v>257.89999999999998</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="11">
         <v>254.6</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7" s="11">
         <v>253.6</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="11">
         <v>255.4</v>
       </c>
-      <c r="U7" s="20">
+      <c r="U7" s="11">
         <v>257.7</v>
       </c>
-      <c r="V7" s="20">
+      <c r="V7" s="11">
         <v>258.2</v>
       </c>
-      <c r="W7" s="20">
+      <c r="W7" s="11">
         <v>266.39999999999998</v>
       </c>
-      <c r="X7" s="20">
+      <c r="X7" s="11">
         <v>261.89999999999998</v>
       </c>
-      <c r="Y7" s="15" t="e">
+      <c r="Y7" s="8" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Z7" s="30">
-        <f>AVERAGE(H7:X7)</f>
+      <c r="Z7" s="16">
+        <f t="shared" si="0"/>
         <v>263.76470588235287</v>
       </c>
-      <c r="AA7" s="31">
-        <f>_xlfn.STDEV.S(H7:X7)</f>
+      <c r="AA7" s="17">
+        <f t="shared" si="1"/>
         <v>7.2120507811986689</v>
       </c>
-      <c r="AB7" s="47">
+      <c r="AB7" s="23">
+        <f t="shared" si="2"/>
+        <v>2.7342743818103792E-2</v>
+      </c>
+      <c r="AC7" s="22">
+        <f t="shared" ref="AC7:AC13" si="4">PEARSON($H$17:$X$17,H7:X7)</f>
+        <v>-0.58512898591222584</v>
+      </c>
+      <c r="AD7" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.575</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1.875</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2.375</v>
+      </c>
+      <c r="J8" s="12">
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="K8" s="12">
+        <v>2.85</v>
+      </c>
+      <c r="L8" s="12">
+        <v>2.625</v>
+      </c>
+      <c r="M8" s="12">
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="N8" s="12">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O8" s="12">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="P8" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="R8" s="12">
+        <v>1.875</v>
+      </c>
+      <c r="S8" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="T8" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="U8" s="12">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="V8" s="12">
+        <v>1.375</v>
+      </c>
+      <c r="W8" s="12">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="X8" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="Y8" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z8" s="16">
         <f t="shared" si="0"/>
-        <v>2.7342743818103792E-2</v>
-      </c>
-      <c r="AC7" s="46">
-        <f t="shared" si="1"/>
-        <v>-0.15810565560133266</v>
-      </c>
-      <c r="AD7" s="53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1.575</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1.75</v>
-      </c>
-      <c r="E8" s="13">
-        <v>1.7</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1.7749999999999999</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="H8" s="21">
-        <v>1.875</v>
-      </c>
-      <c r="I8" s="21">
-        <v>2.375</v>
-      </c>
-      <c r="J8" s="21">
-        <v>2.7250000000000001</v>
-      </c>
-      <c r="K8" s="21">
-        <v>2.85</v>
-      </c>
-      <c r="L8" s="21">
-        <v>2.625</v>
-      </c>
-      <c r="M8" s="21">
-        <v>2.5750000000000002</v>
-      </c>
-      <c r="N8" s="21">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="O8" s="21">
-        <v>2.0249999999999999</v>
-      </c>
-      <c r="P8" s="21">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>1.9</v>
-      </c>
-      <c r="R8" s="21">
-        <v>1.875</v>
-      </c>
-      <c r="S8" s="21">
-        <v>1.75</v>
-      </c>
-      <c r="T8" s="21">
-        <v>1.6</v>
-      </c>
-      <c r="U8" s="21">
-        <v>1.5249999999999999</v>
-      </c>
-      <c r="V8" s="21">
-        <v>1.375</v>
-      </c>
-      <c r="W8" s="21">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="X8" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="Y8" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z8" s="30">
-        <f>AVERAGE(H8:X8)</f>
         <v>1.9647058823529406</v>
       </c>
-      <c r="AA8" s="31">
+      <c r="AA8" s="17">
         <f>_xlfn.STDEV.S(H8:X8)</f>
         <v>0.58269704443066928</v>
       </c>
-      <c r="AB8" s="49">
-        <f t="shared" si="0"/>
+      <c r="AB8" s="24">
+        <f t="shared" si="2"/>
         <v>0.29658232800363415</v>
       </c>
-      <c r="AC8" s="50">
-        <f t="shared" si="1"/>
-        <v>-0.75508389663229303</v>
-      </c>
-      <c r="AD8" s="52" t="s">
-        <v>40</v>
+      <c r="AC8" s="25">
+        <f t="shared" si="4"/>
+        <v>-0.91279275060410858</v>
+      </c>
+      <c r="AD8" s="27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="A9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7">
         <v>833241.58333333337</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="7">
         <v>818273.33333333337</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="7">
         <v>823457.25</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="7">
         <v>854640.58333333337</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="7">
         <v>922643.58333333337</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="10">
         <v>1006151</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="10">
         <v>1069945.0833333333</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="10">
         <v>1128208.1666666667</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="10">
         <v>1156907</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="10">
         <v>989210.5</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="10">
         <v>1088792.9166666667</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="10">
         <v>1207633.4166666667</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="10">
         <v>1266027.4166666667</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="10">
         <v>1306333.8333333333</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="10">
         <v>1345717.5</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9" s="10">
         <v>1303234</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S9" s="10">
         <v>1292899.0833333333</v>
       </c>
-      <c r="T9" s="19">
+      <c r="T9" s="10">
         <v>1359584.3333333333</v>
       </c>
-      <c r="U9" s="19">
+      <c r="U9" s="10">
         <v>1436883.4166666667</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V9" s="10">
         <v>1434971.1666666667</v>
       </c>
-      <c r="W9" s="19">
+      <c r="W9" s="10">
         <v>1392667.6666666667</v>
       </c>
-      <c r="X9" s="19">
+      <c r="X9" s="10">
         <v>1642944.4166666667</v>
       </c>
-      <c r="Y9" s="15" t="e">
+      <c r="Y9" s="8" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Z9" s="30">
-        <f>AVERAGE(H9:X9)</f>
+      <c r="Z9" s="16">
+        <f t="shared" si="0"/>
         <v>1260477.1127450983</v>
       </c>
-      <c r="AA9" s="31">
-        <f>_xlfn.STDEV.S(H9:X9)</f>
+      <c r="AA9" s="17">
+        <f t="shared" si="1"/>
         <v>173652.60721854944</v>
       </c>
-      <c r="AB9" s="47">
-        <f t="shared" si="0"/>
+      <c r="AB9" s="24">
+        <f t="shared" si="2"/>
         <v>0.13776736242387178</v>
       </c>
-      <c r="AC9" s="46">
-        <f t="shared" si="1"/>
-        <v>0.70432296153667651</v>
-      </c>
-      <c r="AD9" s="53" t="s">
-        <v>41</v>
+      <c r="AC9" s="25">
+        <f t="shared" si="4"/>
+        <v>0.91692786202054855</v>
+      </c>
+      <c r="AD9" s="27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="A10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9">
         <v>100</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="9">
         <v>96.583333333333329</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="9">
         <v>95.441666666666663</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="9">
         <v>96.483333333333334</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="9">
         <v>103.875</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="11">
         <v>108.8</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="11">
         <v>111.33333333333333</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="11">
         <v>116.59166666666667</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="11">
         <v>115.03333333333333</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="11">
         <v>109.64166666666667</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="11">
         <v>111.94166666666666</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="11">
         <v>114.41666666666667</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="11">
         <v>115.54166666666667</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="11">
         <v>117.51666666666667</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="11">
         <v>119.85</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="11">
         <v>122.6</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="11">
         <v>124.625</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10" s="11">
         <v>126.93333333333334</v>
       </c>
-      <c r="U10" s="20">
+      <c r="U10" s="11">
         <v>130.55000000000001</v>
       </c>
-      <c r="V10" s="20">
+      <c r="V10" s="11">
         <v>134.64166666666668</v>
       </c>
-      <c r="W10" s="20">
+      <c r="W10" s="11">
         <v>53.491666666666667</v>
       </c>
-      <c r="X10" s="20">
+      <c r="X10" s="11">
         <v>72.516666666666666</v>
       </c>
-      <c r="Y10" s="15" t="e">
+      <c r="Y10" s="8" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Z10" s="30">
-        <f>AVERAGE(H10:X10)</f>
+      <c r="Z10" s="16">
+        <f t="shared" si="0"/>
         <v>112.1191176470588</v>
       </c>
-      <c r="AA10" s="31">
-        <f>_xlfn.STDEV.S(H10:X10)</f>
+      <c r="AA10" s="17">
+        <f t="shared" si="1"/>
         <v>20.140745385750531</v>
       </c>
-      <c r="AB10" s="36">
-        <f t="shared" si="0"/>
+      <c r="AB10" s="19">
+        <f t="shared" si="2"/>
         <v>0.1796370307617996</v>
       </c>
-      <c r="AC10" s="46">
-        <f t="shared" si="1"/>
-        <v>-0.50235842262535635</v>
-      </c>
-      <c r="AD10" s="53" t="s">
-        <v>41</v>
+      <c r="AC10" s="22">
+        <f t="shared" si="4"/>
+        <v>-0.32538540045142128</v>
+      </c>
+      <c r="AD10" s="28" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="A11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
         <v>803704.5</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="7">
         <v>839778.33333333337</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="7">
         <v>848339.5</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="7">
         <v>890520.83333333337</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="7">
         <v>989220</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="10">
         <v>1114935.3333333333</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="10">
         <v>1164342.5</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="10">
         <v>1147741.6666666667</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="10">
         <v>1075922.9166666667</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="10">
         <v>912243</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="10">
         <v>811522.66666666663</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="10">
         <v>790567.75</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="10">
         <v>853534.83333333337</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="10">
         <v>912339.58333333337</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11" s="10">
         <v>1015449.9166666666</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="10">
         <v>1138584</v>
       </c>
-      <c r="S11" s="19">
+      <c r="S11" s="10">
         <v>1223908.9166666667</v>
       </c>
-      <c r="T11" s="19">
+      <c r="T11" s="10">
         <v>1280851.9166666667</v>
       </c>
-      <c r="U11" s="19">
+      <c r="U11" s="10">
         <v>1333472.4166666667</v>
       </c>
-      <c r="V11" s="19">
+      <c r="V11" s="10">
         <v>1389526.3333333333</v>
       </c>
-      <c r="W11" s="19">
+      <c r="W11" s="10">
         <v>1469766.5</v>
       </c>
-      <c r="X11" s="19">
+      <c r="X11" s="10">
         <v>1588078.5833333333</v>
       </c>
-      <c r="Y11" s="15" t="e">
+      <c r="Y11" s="8" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Z11" s="30">
-        <f>AVERAGE(H11:X11)</f>
+      <c r="Z11" s="16">
+        <f t="shared" si="0"/>
         <v>1130752.2843137253</v>
       </c>
-      <c r="AA11" s="31">
-        <f>_xlfn.STDEV.S(H11:X11)</f>
+      <c r="AA11" s="17">
+        <f t="shared" si="1"/>
         <v>233359.68027311334</v>
       </c>
-      <c r="AB11" s="49">
-        <f t="shared" si="0"/>
+      <c r="AB11" s="24">
+        <f t="shared" si="2"/>
         <v>0.20637559924519072</v>
       </c>
-      <c r="AC11" s="50">
-        <f t="shared" si="1"/>
-        <v>0.95577640482376647</v>
-      </c>
-      <c r="AD11" s="52" t="s">
-        <v>40</v>
+      <c r="AC11" s="25">
+        <f t="shared" si="4"/>
+        <v>0.86823782435129293</v>
+      </c>
+      <c r="AD11" s="27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="16">
+      <c r="A12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9">
         <v>67.400000000000006</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="9">
         <v>67.8</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="9">
         <v>67.900000000000006</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="9">
         <v>68.3</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="9">
         <v>69</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="11">
         <v>68.900000000000006</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="11">
         <v>68.8</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="11">
         <v>68.099999999999994</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="11">
         <v>67.8</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="11">
         <v>67.400000000000006</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="11">
         <v>66.900000000000006</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="11">
         <v>66.099999999999994</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="11">
         <v>65.400000000000006</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="11">
         <v>65.099999999999994</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="11">
         <v>64.5</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="11">
         <v>63.7</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="11">
         <v>63.4</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12" s="11">
         <v>63.9</v>
       </c>
-      <c r="U12" s="20">
+      <c r="U12" s="11">
         <v>64.400000000000006</v>
       </c>
-      <c r="V12" s="20">
+      <c r="V12" s="11">
         <v>64.599999999999994</v>
       </c>
-      <c r="W12" s="20">
+      <c r="W12" s="11">
         <v>66.599999999999994</v>
       </c>
-      <c r="X12" s="20">
+      <c r="X12" s="11">
         <v>65.5</v>
       </c>
-      <c r="Y12" s="15" t="e">
+      <c r="Y12" s="8" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Z12" s="30">
-        <f>AVERAGE(H12:X12)</f>
+      <c r="Z12" s="16">
+        <f t="shared" si="0"/>
         <v>65.947058823529403</v>
       </c>
-      <c r="AA12" s="31">
-        <f>_xlfn.STDEV.S(H12:X12)</f>
+      <c r="AA12" s="17">
+        <f t="shared" si="1"/>
         <v>1.7965653505574268</v>
       </c>
-      <c r="AB12" s="47">
-        <f t="shared" si="0"/>
+      <c r="AB12" s="23">
+        <f t="shared" si="2"/>
         <v>2.7242539434016822E-2</v>
       </c>
-      <c r="AC12" s="46">
-        <f t="shared" si="1"/>
-        <v>-0.15333825903319198</v>
-      </c>
-      <c r="AD12" s="53" t="s">
-        <v>41</v>
+      <c r="AC12" s="22">
+        <f t="shared" si="4"/>
+        <v>-0.58148229076011593</v>
+      </c>
+      <c r="AD12" s="28" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="43">
+      <c r="A13" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="41">
         <v>236.065</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="41">
         <v>253.7175</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="41">
         <v>269.78750000000002</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="41">
         <v>286.61500000000001</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="41">
         <v>313.5025</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="42">
         <v>349.08499999999998</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="42">
         <v>374.08499999999998</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="42">
         <v>378.25</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="42">
         <v>358.85250000000002</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="42">
         <v>338.9375</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="42">
         <v>325.10500000000002</v>
       </c>
-      <c r="N13" s="43">
+      <c r="N13" s="42">
         <v>312.58</v>
       </c>
-      <c r="O13" s="43">
+      <c r="O13" s="42">
         <v>311.77</v>
       </c>
-      <c r="P13" s="43">
+      <c r="P13" s="42">
         <v>323.53500000000003</v>
       </c>
-      <c r="Q13" s="43">
+      <c r="Q13" s="42">
         <v>339.79</v>
       </c>
-      <c r="R13" s="43">
+      <c r="R13" s="42">
         <v>357.30250000000001</v>
       </c>
-      <c r="S13" s="43">
+      <c r="S13" s="42">
         <v>376.06</v>
       </c>
-      <c r="T13" s="43">
+      <c r="T13" s="42">
         <v>396.59500000000003</v>
       </c>
-      <c r="U13" s="43">
+      <c r="U13" s="42">
         <v>418.6225</v>
       </c>
-      <c r="V13" s="43">
+      <c r="V13" s="42">
         <v>437.95749999999998</v>
       </c>
-      <c r="W13" s="43">
+      <c r="W13" s="42">
         <v>460.45749999999998</v>
       </c>
-      <c r="X13" s="43">
+      <c r="X13" s="42">
         <v>523.17999999999995</v>
       </c>
-      <c r="Y13" s="56" t="e">
+      <c r="Y13" s="62" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Z13" s="30">
-        <f>AVERAGE(H13:X13)</f>
+      <c r="Z13" s="16">
+        <f t="shared" si="0"/>
         <v>375.42147058823537</v>
       </c>
-      <c r="AA13" s="31">
-        <f>_xlfn.STDEV.S(H13:X13)</f>
+      <c r="AA13" s="17">
+        <f t="shared" si="1"/>
         <v>57.239048393412588</v>
       </c>
-      <c r="AB13" s="31">
-        <f t="shared" si="0"/>
+      <c r="AB13" s="24">
+        <f t="shared" si="2"/>
         <v>0.15246610244141506</v>
       </c>
-      <c r="AC13" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD13" s="55" t="s">
-        <v>42</v>
+      <c r="AC13" s="25">
+        <f t="shared" si="4"/>
+        <v>0.86593984820070813</v>
+      </c>
+      <c r="AD13" s="27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="18" t="e">
+      <c r="A14" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="D14" s="18" t="e">
+      <c r="D14" s="6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E14" s="18" t="e">
+      <c r="E14" s="6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F14" s="18" t="e">
+      <c r="F14" s="6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="G14" s="18" t="e">
+      <c r="G14" s="6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="32">
         <v>24.883333333333333</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="32">
         <v>29.308333333333334</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="32">
         <v>23.183333333333334</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="32">
         <v>20.824999999999999</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="32">
         <v>7.6083333333333334</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="32">
         <v>12.324999999999999</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="32">
         <v>16.649999999999999</v>
       </c>
-      <c r="O14" s="22">
+      <c r="O14" s="32">
         <v>18.016666666666666</v>
       </c>
-      <c r="P14" s="22">
+      <c r="P14" s="32">
         <v>18.616666666666667</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="32">
         <v>24.458333333333332</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="32">
         <v>20.041666666666668</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="32">
         <v>20</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="32">
         <v>23.658333333333335</v>
       </c>
-      <c r="U14" s="22">
+      <c r="U14" s="32">
         <v>30.6</v>
       </c>
-      <c r="V14" s="22">
+      <c r="V14" s="32">
         <v>25.316666666666666</v>
       </c>
-      <c r="W14" s="22">
+      <c r="W14" s="32">
         <v>17.408333333333335</v>
       </c>
-      <c r="X14" s="22">
+      <c r="X14" s="32">
         <v>39.225000000000001</v>
       </c>
-      <c r="Y14" s="57" t="e">
+      <c r="Y14" s="8" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Z14" s="32">
-        <f>AVERAGE(H14:X14)</f>
+      <c r="Z14" s="16">
+        <f t="shared" si="0"/>
         <v>21.889705882352949</v>
       </c>
-      <c r="AA14" s="33">
+      <c r="AA14" s="17">
         <f>_xlfn.STDEV.S(H14:X14)</f>
         <v>7.2471303764186645</v>
       </c>
-      <c r="AB14" s="45">
+      <c r="AB14" s="19">
+        <f t="shared" si="2"/>
+        <v>0.33107481733051325</v>
+      </c>
+      <c r="AC14" s="22">
+        <f t="shared" si="3"/>
+        <v>0.65080690428290311</v>
+      </c>
+      <c r="AD14" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="64">
+        <v>172.19166666666666</v>
+      </c>
+      <c r="D15" s="64">
+        <v>177.04166666666666</v>
+      </c>
+      <c r="E15" s="64">
+        <v>179.86666666666667</v>
+      </c>
+      <c r="F15" s="64">
+        <v>184</v>
+      </c>
+      <c r="G15" s="64">
+        <v>188.90833333333333</v>
+      </c>
+      <c r="H15" s="65">
+        <v>195.26666666666668</v>
+      </c>
+      <c r="I15" s="65">
+        <v>201.55833333333334</v>
+      </c>
+      <c r="J15" s="65">
+        <v>207.34416666666667</v>
+      </c>
+      <c r="K15" s="65">
+        <v>215.25425000000001</v>
+      </c>
+      <c r="L15" s="65">
+        <v>214.56466666666665</v>
+      </c>
+      <c r="M15" s="65">
+        <v>218.07616666666667</v>
+      </c>
+      <c r="N15" s="65">
+        <v>224.923</v>
+      </c>
+      <c r="O15" s="65">
+        <v>229.58608333333333</v>
+      </c>
+      <c r="P15" s="65">
+        <v>232.95175</v>
+      </c>
+      <c r="Q15" s="65">
+        <v>236.715</v>
+      </c>
+      <c r="R15" s="65">
+        <v>237.00174999999999</v>
+      </c>
+      <c r="S15" s="65">
+        <v>240.00541666666666</v>
+      </c>
+      <c r="T15" s="65">
+        <v>245.12100000000001</v>
+      </c>
+      <c r="U15" s="65">
+        <v>251.09891666666667</v>
+      </c>
+      <c r="V15" s="65">
+        <v>255.6465</v>
+      </c>
+      <c r="W15" s="65">
+        <v>258.83825000000002</v>
+      </c>
+      <c r="X15" s="65">
+        <v>270.96541666666667</v>
+      </c>
+      <c r="Y15" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z15" s="16">
         <f t="shared" si="0"/>
-        <v>0.33107481733051325</v>
-      </c>
-      <c r="AC14" s="48">
-        <f t="shared" si="1"/>
-        <v>0.66740470542414787</v>
-      </c>
-      <c r="AD14" s="54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+        <v>231.46572549019609</v>
+      </c>
+      <c r="AA15" s="17">
+        <f>_xlfn.STDEV.S(H15:X15)</f>
+        <v>21.154503374679106</v>
+      </c>
+      <c r="AB15" s="23">
+        <f t="shared" si="2"/>
+        <v>9.1393675369769251E-2</v>
+      </c>
+      <c r="AC15" s="33">
+        <f>PEARSON($H$17:$X$17,H15:X15)</f>
+        <v>0.89495530577643145</v>
+      </c>
+      <c r="AD15" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2.9750000000000001</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2.4333333333333331</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2.9583333333333335</v>
+      </c>
+      <c r="H16" s="11">
+        <v>3.3416666666666668</v>
+      </c>
+      <c r="I16" s="11">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="J16" s="11">
+        <v>3.2166666666666668</v>
+      </c>
+      <c r="K16" s="11">
+        <v>4.0916666666666668</v>
+      </c>
+      <c r="L16" s="11">
+        <v>2.5666666666666669</v>
+      </c>
+      <c r="M16" s="11">
+        <v>2.7833333333333332</v>
+      </c>
+      <c r="N16" s="11">
+        <v>3.6333333333333333</v>
+      </c>
+      <c r="O16" s="11">
+        <v>3.2583333333333333</v>
+      </c>
+      <c r="P16" s="11">
+        <v>3.1083333333333334</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>3.0916666666666668</v>
+      </c>
+      <c r="R16" s="11">
+        <v>2.7333333333333334</v>
+      </c>
+      <c r="S16" s="11">
+        <v>2.5083333333333333</v>
+      </c>
+      <c r="T16" s="11">
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="U16" s="11">
+        <v>2.8083333333333331</v>
+      </c>
+      <c r="V16" s="11">
+        <v>2.6083333333333334</v>
+      </c>
+      <c r="W16" s="11">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="X16" s="11">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="Y16" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z16" s="16">
+        <f t="shared" si="0"/>
+        <v>3.0818627450980394</v>
+      </c>
+      <c r="AA16" s="17">
+        <f>_xlfn.STDEV.S(H16:X16)</f>
+        <v>0.51012521691061941</v>
+      </c>
+      <c r="AB16" s="19">
+        <f t="shared" si="2"/>
+        <v>0.16552496301855632</v>
+      </c>
+      <c r="AC16" s="22">
+        <f t="shared" si="3"/>
+        <v>-6.633861477799341E-2</v>
+      </c>
+      <c r="AD16" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="68">
+        <v>167550</v>
+      </c>
+      <c r="D17" s="68">
+        <v>173100</v>
+      </c>
+      <c r="E17" s="68">
+        <v>186025</v>
+      </c>
+      <c r="F17" s="68">
+        <v>192125</v>
+      </c>
+      <c r="G17" s="68">
+        <v>218150</v>
+      </c>
+      <c r="H17" s="68">
+        <v>236550</v>
+      </c>
+      <c r="I17" s="68">
+        <v>243750</v>
+      </c>
+      <c r="J17" s="68">
+        <v>244950</v>
+      </c>
+      <c r="K17" s="68">
+        <v>229550</v>
+      </c>
+      <c r="L17" s="68">
+        <v>215650</v>
+      </c>
+      <c r="M17" s="68">
+        <v>222700</v>
+      </c>
+      <c r="N17" s="68">
+        <v>224900</v>
+      </c>
+      <c r="O17" s="68">
+        <v>244400</v>
+      </c>
+      <c r="P17" s="68">
+        <v>266225</v>
+      </c>
+      <c r="Q17" s="68">
+        <v>285775</v>
+      </c>
+      <c r="R17" s="68">
+        <v>294150</v>
+      </c>
+      <c r="S17" s="68">
+        <v>305125</v>
+      </c>
+      <c r="T17" s="68">
+        <v>322425</v>
+      </c>
+      <c r="U17" s="68">
+        <v>325275</v>
+      </c>
+      <c r="V17" s="68">
+        <v>320250</v>
+      </c>
+      <c r="W17" s="68">
+        <v>336950</v>
+      </c>
+      <c r="X17" s="68">
+        <v>396800</v>
+      </c>
+      <c r="Y17" s="69" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z17" s="53">
+        <f t="shared" si="0"/>
+        <v>277377.9411764706</v>
+      </c>
+      <c r="AA17" s="30">
+        <f t="shared" ref="AA17:AA18" si="5">_xlfn.STDEV.S(H17:X17)</f>
+        <v>51232.481672361166</v>
+      </c>
+      <c r="AB17" s="30">
+        <f t="shared" si="2"/>
+        <v>0.18470279740005191</v>
+      </c>
+      <c r="AC17" s="54">
+        <f>PEARSON($H$17:$X$17,H17:X17)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="AD17" s="59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="72">
+        <v>144.45833333333334</v>
+      </c>
+      <c r="D18" s="72">
+        <v>147.91666666666666</v>
+      </c>
+      <c r="E18" s="72">
+        <v>150.07499999999999</v>
+      </c>
+      <c r="F18" s="72">
+        <v>153.85</v>
+      </c>
+      <c r="G18" s="72">
+        <v>155.30000000000001</v>
+      </c>
+      <c r="H18" s="73">
+        <v>162.14166666666668</v>
+      </c>
+      <c r="I18" s="73">
+        <v>169.15</v>
+      </c>
+      <c r="J18" s="73">
+        <v>184.95833333333334</v>
+      </c>
+      <c r="K18" s="73">
+        <v>191.20833333333334</v>
+      </c>
+      <c r="L18" s="73">
+        <v>197.03333333333333</v>
+      </c>
+      <c r="M18" s="73">
+        <v>196.125</v>
+      </c>
+      <c r="N18" s="73">
+        <v>198.00833333333333</v>
+      </c>
+      <c r="O18" s="73">
+        <v>200.24166666666667</v>
+      </c>
+      <c r="P18" s="73">
+        <v>202.36666666666667</v>
+      </c>
+      <c r="Q18" s="73">
+        <v>207.00833333333333</v>
+      </c>
+      <c r="R18" s="73">
+        <v>208.35</v>
+      </c>
+      <c r="S18" s="73">
+        <v>215.49166666666667</v>
+      </c>
+      <c r="T18" s="73">
+        <v>228.95833333333334</v>
+      </c>
+      <c r="U18" s="73">
+        <v>244.29166666666666</v>
+      </c>
+      <c r="V18" s="73">
+        <v>252.67500000000001</v>
+      </c>
+      <c r="W18" s="73">
+        <v>260.33333333333331</v>
+      </c>
+      <c r="X18" s="73">
+        <v>270.04283333333331</v>
+      </c>
+      <c r="Y18" s="74" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z18" s="16">
+        <f t="shared" si="0"/>
+        <v>211.08144117647063</v>
+      </c>
+      <c r="AA18" s="17">
+        <f t="shared" si="5"/>
+        <v>30.735083056377402</v>
+      </c>
+      <c r="AB18" s="24">
+        <f t="shared" si="2"/>
+        <v>0.14560769949775887</v>
+      </c>
+      <c r="AC18" s="25">
+        <f t="shared" si="3"/>
+        <v>0.88228060370832206</v>
+      </c>
+      <c r="AD18" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="Z15" s="37" t="s">
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="77" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="77" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="77" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F19" s="77" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" s="78">
+        <v>104.21666666666667</v>
+      </c>
+      <c r="H19" s="79">
+        <v>114.8</v>
+      </c>
+      <c r="I19" s="79">
+        <v>126.65</v>
+      </c>
+      <c r="J19" s="79">
+        <v>131.86666666666667</v>
+      </c>
+      <c r="K19" s="79">
+        <v>136.40833333333333</v>
+      </c>
+      <c r="L19" s="79">
+        <v>138</v>
+      </c>
+      <c r="M19" s="79">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="N19" s="79">
+        <v>135.03333333333333</v>
+      </c>
+      <c r="O19" s="79">
+        <v>137.60833333333332</v>
+      </c>
+      <c r="P19" s="79">
+        <v>141.64166666666668</v>
+      </c>
+      <c r="Q19" s="79">
+        <v>147.45833333333334</v>
+      </c>
+      <c r="R19" s="79">
+        <v>153.64166666666668</v>
+      </c>
+      <c r="S19" s="79">
+        <v>158.45833333333334</v>
+      </c>
+      <c r="T19" s="79">
+        <v>163.01666666666668</v>
+      </c>
+      <c r="U19" s="79">
+        <v>168.96666666666667</v>
+      </c>
+      <c r="V19" s="79">
+        <v>174.07499999999999</v>
+      </c>
+      <c r="W19" s="79">
+        <v>178.38333333333333</v>
+      </c>
+      <c r="X19" s="79">
+        <v>187.14324999999999</v>
+      </c>
+      <c r="Y19" s="80" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z19" s="55">
+        <f t="shared" ref="Z19" si="6">AVERAGE(H19:X19)</f>
+        <v>148.73244607843137</v>
+      </c>
+      <c r="AA19" s="56">
+        <f t="shared" ref="AA19" si="7">_xlfn.STDEV.S(H19:X19)</f>
+        <v>20.098631282796301</v>
+      </c>
+      <c r="AB19" s="57">
+        <f t="shared" ref="AB19" si="8">AA19/Z19</f>
+        <v>0.13513279592132607</v>
+      </c>
+      <c r="AC19" s="58">
+        <f t="shared" ref="AC19" si="9">PEARSON($H$17:$X$17,H19:X19)</f>
+        <v>0.92382230950157984</v>
+      </c>
+      <c r="AD19" s="60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z21" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA21" s="105"/>
+      <c r="AB21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC21" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC15" s="40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
-        <v>36</v>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="84" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="C1:Y1"/>
-    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Z21:AA21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78174AA8-25AD-4F1A-AAF2-900DA99AFCFD}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="86">
+        <v>25279.416666666668</v>
+      </c>
+      <c r="B2" s="43">
+        <v>1278679</v>
+      </c>
+      <c r="C2" s="87">
+        <v>1834.5416666666667</v>
+      </c>
+      <c r="D2" s="23">
+        <v>1.875</v>
+      </c>
+      <c r="E2" s="86">
+        <v>1006151</v>
+      </c>
+      <c r="F2" s="86">
+        <v>1114935.3333333333</v>
+      </c>
+      <c r="G2" s="89">
+        <v>349.08499999999998</v>
+      </c>
+      <c r="H2" s="46">
+        <v>162.14166666666668</v>
+      </c>
+      <c r="I2" s="52">
+        <v>114.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="86">
+        <v>25927.916666666668</v>
+      </c>
+      <c r="B3" s="43">
+        <v>1372072.25</v>
+      </c>
+      <c r="C3" s="87">
+        <v>1808.2666666666667</v>
+      </c>
+      <c r="D3" s="23">
+        <v>2.375</v>
+      </c>
+      <c r="E3" s="86">
+        <v>1069945.0833333333</v>
+      </c>
+      <c r="F3" s="86">
+        <v>1164342.5</v>
+      </c>
+      <c r="G3" s="89">
+        <v>374.08499999999998</v>
+      </c>
+      <c r="H3" s="46">
+        <v>169.15</v>
+      </c>
+      <c r="I3" s="52">
+        <v>126.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="86">
+        <v>27116.416666666668</v>
+      </c>
+      <c r="B4" s="43">
+        <v>1446353.0833333333</v>
+      </c>
+      <c r="C4" s="87">
+        <v>1925.325</v>
+      </c>
+      <c r="D4" s="23">
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="E4" s="86">
+        <v>1128208.1666666667</v>
+      </c>
+      <c r="F4" s="86">
+        <v>1147741.6666666667</v>
+      </c>
+      <c r="G4" s="89">
+        <v>378.25</v>
+      </c>
+      <c r="H4" s="46">
+        <v>184.95833333333334</v>
+      </c>
+      <c r="I4" s="52">
+        <v>131.86666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="86">
+        <v>27639.416666666668</v>
+      </c>
+      <c r="B5" s="43">
+        <v>1513006.75</v>
+      </c>
+      <c r="C5" s="87">
+        <v>1939.7583333333334</v>
+      </c>
+      <c r="D5" s="23">
+        <v>2.85</v>
+      </c>
+      <c r="E5" s="86">
+        <v>1156907</v>
+      </c>
+      <c r="F5" s="86">
+        <v>1075922.9166666667</v>
+      </c>
+      <c r="G5" s="89">
+        <v>358.85250000000002</v>
+      </c>
+      <c r="H5" s="46">
+        <v>191.20833333333334</v>
+      </c>
+      <c r="I5" s="52">
+        <v>136.40833333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="86">
+        <v>27685.75</v>
+      </c>
+      <c r="B6" s="43">
+        <v>1363445.5833333333</v>
+      </c>
+      <c r="C6" s="87">
+        <v>1909.175</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2.625</v>
+      </c>
+      <c r="E6" s="86">
+        <v>989210.5</v>
+      </c>
+      <c r="F6" s="86">
+        <v>912243</v>
+      </c>
+      <c r="G6" s="89">
+        <v>338.9375</v>
+      </c>
+      <c r="H6" s="46">
+        <v>197.03333333333333</v>
+      </c>
+      <c r="I6" s="52">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="86">
+        <v>28346.416666666668</v>
+      </c>
+      <c r="B7" s="43">
+        <v>1382707.1666666667</v>
+      </c>
+      <c r="C7" s="87">
+        <v>2007.2333333333333</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="E7" s="86">
+        <v>1088792.9166666667</v>
+      </c>
+      <c r="F7" s="86">
+        <v>811522.66666666663</v>
+      </c>
+      <c r="G7" s="89">
+        <v>325.10500000000002</v>
+      </c>
+      <c r="H7" s="46">
+        <v>196.125</v>
+      </c>
+      <c r="I7" s="52">
+        <v>135.30000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="86">
+        <v>29929.416666666668</v>
+      </c>
+      <c r="B8" s="43">
+        <v>1521965.6666666667</v>
+      </c>
+      <c r="C8" s="87">
+        <v>2039.7833333333333</v>
+      </c>
+      <c r="D8" s="23">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E8" s="86">
+        <v>1207633.4166666667</v>
+      </c>
+      <c r="F8" s="86">
+        <v>790567.75</v>
+      </c>
+      <c r="G8" s="89">
+        <v>312.58</v>
+      </c>
+      <c r="H8" s="46">
+        <v>198.00833333333333</v>
+      </c>
+      <c r="I8" s="52">
+        <v>135.03333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="86">
+        <v>29561.75</v>
+      </c>
+      <c r="B9" s="43">
+        <v>1619087.0833333333</v>
+      </c>
+      <c r="C9" s="87">
+        <v>2128.2166666666667</v>
+      </c>
+      <c r="D9" s="23">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="E9" s="86">
+        <v>1266027.4166666667</v>
+      </c>
+      <c r="F9" s="86">
+        <v>853534.83333333337</v>
+      </c>
+      <c r="G9" s="89">
+        <v>311.77</v>
+      </c>
+      <c r="H9" s="46">
+        <v>200.24166666666667</v>
+      </c>
+      <c r="I9" s="52">
+        <v>137.60833333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="86">
+        <v>30312.416666666668</v>
+      </c>
+      <c r="B10" s="43">
+        <v>1688290.6666666667</v>
+      </c>
+      <c r="C10" s="87">
+        <v>2179.6</v>
+      </c>
+      <c r="D10" s="23">
+        <v>2</v>
+      </c>
+      <c r="E10" s="86">
+        <v>1306333.8333333333</v>
+      </c>
+      <c r="F10" s="86">
+        <v>912339.58333333337</v>
+      </c>
+      <c r="G10" s="89">
+        <v>323.53500000000003</v>
+      </c>
+      <c r="H10" s="46">
+        <v>202.36666666666667</v>
+      </c>
+      <c r="I10" s="52">
+        <v>141.64166666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="86">
+        <v>30335.833333333332</v>
+      </c>
+      <c r="B11" s="43">
+        <v>1769028</v>
+      </c>
+      <c r="C11" s="87">
+        <v>2216.1166666666668</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="E11" s="86">
+        <v>1345717.5</v>
+      </c>
+      <c r="F11" s="86">
+        <v>1015449.9166666666</v>
+      </c>
+      <c r="G11" s="89">
+        <v>339.79</v>
+      </c>
+      <c r="H11" s="46">
+        <v>207.00833333333333</v>
+      </c>
+      <c r="I11" s="52">
+        <v>147.45833333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="86">
+        <v>31814.833333333332</v>
+      </c>
+      <c r="B12" s="43">
+        <v>1814472.5833333333</v>
+      </c>
+      <c r="C12" s="87">
+        <v>2270.3166666666666</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1.875</v>
+      </c>
+      <c r="E12" s="86">
+        <v>1303234</v>
+      </c>
+      <c r="F12" s="86">
+        <v>1138584</v>
+      </c>
+      <c r="G12" s="89">
+        <v>357.30250000000001</v>
+      </c>
+      <c r="H12" s="46">
+        <v>208.35</v>
+      </c>
+      <c r="I12" s="52">
+        <v>153.64166666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="86">
+        <v>34700.333333333336</v>
+      </c>
+      <c r="B13" s="43">
+        <v>1837068.9166666667</v>
+      </c>
+      <c r="C13" s="87">
+        <v>2287.0416666666665</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1.75</v>
+      </c>
+      <c r="E13" s="86">
+        <v>1292899.0833333333</v>
+      </c>
+      <c r="F13" s="86">
+        <v>1223908.9166666667</v>
+      </c>
+      <c r="G13" s="89">
+        <v>376.06</v>
+      </c>
+      <c r="H13" s="46">
+        <v>215.49166666666667</v>
+      </c>
+      <c r="I13" s="52">
+        <v>158.45833333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="86">
+        <v>37479</v>
+      </c>
+      <c r="B14" s="43">
+        <v>1886857.25</v>
+      </c>
+      <c r="C14" s="87">
+        <v>2261.8666666666668</v>
+      </c>
+      <c r="D14" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="E14" s="86">
+        <v>1359584.3333333333</v>
+      </c>
+      <c r="F14" s="86">
+        <v>1280851.9166666667</v>
+      </c>
+      <c r="G14" s="89">
+        <v>396.59500000000003</v>
+      </c>
+      <c r="H14" s="46">
+        <v>228.95833333333334</v>
+      </c>
+      <c r="I14" s="52">
+        <v>163.01666666666668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="86">
+        <v>40278.833333333336</v>
+      </c>
+      <c r="B15" s="43">
+        <v>1960528.8333333333</v>
+      </c>
+      <c r="C15" s="87">
+        <v>2511.5666666666666</v>
+      </c>
+      <c r="D15" s="23">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="E15" s="86">
+        <v>1436883.4166666667</v>
+      </c>
+      <c r="F15" s="86">
+        <v>1333472.4166666667</v>
+      </c>
+      <c r="G15" s="89">
+        <v>418.6225</v>
+      </c>
+      <c r="H15" s="46">
+        <v>244.29166666666666</v>
+      </c>
+      <c r="I15" s="52">
+        <v>168.96666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="86">
+        <v>43550.75</v>
+      </c>
+      <c r="B16" s="43">
+        <v>2043902.3333333333</v>
+      </c>
+      <c r="C16" s="87">
+        <v>2594.3333333333335</v>
+      </c>
+      <c r="D16" s="23">
+        <v>1.375</v>
+      </c>
+      <c r="E16" s="86">
+        <v>1434971.1666666667</v>
+      </c>
+      <c r="F16" s="86">
+        <v>1389526.3333333333</v>
+      </c>
+      <c r="G16" s="89">
+        <v>437.95749999999998</v>
+      </c>
+      <c r="H16" s="46">
+        <v>252.67500000000001</v>
+      </c>
+      <c r="I16" s="52">
+        <v>174.07499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="86">
+        <v>69482.666666666672</v>
+      </c>
+      <c r="B17" s="43">
+        <v>1980857.9166666667</v>
+      </c>
+      <c r="C17" s="87">
+        <v>2539.35</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E17" s="86">
+        <v>1392667.6666666667</v>
+      </c>
+      <c r="F17" s="86">
+        <v>1469766.5</v>
+      </c>
+      <c r="G17" s="89">
+        <v>460.45749999999998</v>
+      </c>
+      <c r="H17" s="46">
+        <v>260.33333333333331</v>
+      </c>
+      <c r="I17" s="52">
+        <v>178.38333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="86">
+        <v>81401.75</v>
+      </c>
+      <c r="B18" s="43">
+        <v>2076959.8333333333</v>
+      </c>
+      <c r="C18" s="87">
+        <v>2523.6583333333333</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="86">
+        <v>1642944.4166666667</v>
+      </c>
+      <c r="F18" s="86">
+        <v>1588078.5833333333</v>
+      </c>
+      <c r="G18" s="89">
+        <v>523.17999999999995</v>
+      </c>
+      <c r="H18" s="46">
+        <v>270.04283333333331</v>
+      </c>
+      <c r="I18" s="52">
+        <v>187.14324999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A20:E20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235196E0-46FE-4AF0-AC40-4A59C6FA8BC4}">
+  <dimension ref="A1:R33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="13.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="91">
+        <v>236550</v>
+      </c>
+      <c r="B3" s="43">
+        <v>1278679</v>
+      </c>
+      <c r="C3" s="46">
+        <v>162.14166666666668</v>
+      </c>
+      <c r="D3" s="52">
+        <v>114.8</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="91">
+        <v>243750</v>
+      </c>
+      <c r="B4" s="43">
+        <v>1372072.25</v>
+      </c>
+      <c r="C4" s="46">
+        <v>169.15</v>
+      </c>
+      <c r="D4" s="52">
+        <v>126.65</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0.94280446471647716</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="91">
+        <v>244950</v>
+      </c>
+      <c r="B5" s="43">
+        <v>1446353.0833333333</v>
+      </c>
+      <c r="C5" s="46">
+        <v>184.95833333333334</v>
+      </c>
+      <c r="D5" s="52">
+        <v>131.86666666666667</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0.88888025868932297</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="91">
+        <v>229550</v>
+      </c>
+      <c r="B6" s="43">
+        <v>1513006.75</v>
+      </c>
+      <c r="C6" s="46">
+        <v>191.20833333333334</v>
+      </c>
+      <c r="D6" s="52">
+        <v>136.40833333333333</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.86323724146378211</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="91">
+        <v>215650</v>
+      </c>
+      <c r="B7" s="43">
+        <v>1363445.5833333333</v>
+      </c>
+      <c r="C7" s="46">
+        <v>197.03333333333333</v>
+      </c>
+      <c r="D7" s="52">
+        <v>138</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="37">
+        <v>18946.514186542052</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="91">
+        <v>222700</v>
+      </c>
+      <c r="B8" s="43">
+        <v>1382707.1666666667</v>
+      </c>
+      <c r="C8" s="46">
+        <v>196.125</v>
+      </c>
+      <c r="D8" s="52">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="38">
+        <v>17</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="91">
+        <v>224900</v>
+      </c>
+      <c r="B9" s="43">
+        <v>1521965.6666666667</v>
+      </c>
+      <c r="C9" s="46">
+        <v>198.00833333333333</v>
+      </c>
+      <c r="D9" s="52">
+        <v>135.03333333333333</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="91">
+        <v>244400</v>
+      </c>
+      <c r="B10" s="43">
+        <v>1619087.0833333333</v>
+      </c>
+      <c r="C10" s="46">
+        <v>200.24166666666667</v>
+      </c>
+      <c r="D10" s="52">
+        <v>137.60833333333332</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="91">
+        <v>266225</v>
+      </c>
+      <c r="B11" s="43">
+        <v>1688290.6666666667</v>
+      </c>
+      <c r="C11" s="46">
+        <v>202.36666666666667</v>
+      </c>
+      <c r="D11" s="52">
+        <v>141.64166666666668</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="91">
+        <v>285775</v>
+      </c>
+      <c r="B12" s="43">
+        <v>1769028</v>
+      </c>
+      <c r="C12" s="46">
+        <v>207.00833333333333</v>
+      </c>
+      <c r="D12" s="52">
+        <v>147.45833333333334</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="37">
+        <v>3</v>
+      </c>
+      <c r="G12" s="37">
+        <v>37329659655.270264</v>
+      </c>
+      <c r="H12" s="37">
+        <v>12443219885.090088</v>
+      </c>
+      <c r="I12" s="37">
+        <v>34.663637701884198</v>
+      </c>
+      <c r="J12" s="37">
+        <v>1.8129920590200168E-6</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="91">
+        <v>294150</v>
+      </c>
+      <c r="B13" s="43">
+        <v>1814472.5833333333</v>
+      </c>
+      <c r="C13" s="46">
+        <v>208.35</v>
+      </c>
+      <c r="D13" s="52">
+        <v>153.64166666666668</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="37">
+        <v>13</v>
+      </c>
+      <c r="G13" s="37">
+        <v>4666615197.6709099</v>
+      </c>
+      <c r="H13" s="37">
+        <v>358970399.82083923</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="91">
+        <v>305125</v>
+      </c>
+      <c r="B14" s="43">
+        <v>1837068.9166666667</v>
+      </c>
+      <c r="C14" s="46">
+        <v>215.49166666666667</v>
+      </c>
+      <c r="D14" s="52">
+        <v>158.45833333333334</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="38">
+        <v>16</v>
+      </c>
+      <c r="G14" s="38">
+        <v>41996274852.941177</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="91">
+        <v>322425</v>
+      </c>
+      <c r="B15" s="43">
+        <v>1886857.25</v>
+      </c>
+      <c r="C15" s="46">
+        <v>228.95833333333334</v>
+      </c>
+      <c r="D15" s="52">
+        <v>163.01666666666668</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="91">
+        <v>325275</v>
+      </c>
+      <c r="B16" s="43">
+        <v>1960528.8333333333</v>
+      </c>
+      <c r="C16" s="46">
+        <v>244.29166666666666</v>
+      </c>
+      <c r="D16" s="52">
+        <v>168.96666666666667</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="91">
+        <v>320250</v>
+      </c>
+      <c r="B17" s="43">
+        <v>2043902.3333333333</v>
+      </c>
+      <c r="C17" s="46">
+        <v>252.67500000000001</v>
+      </c>
+      <c r="D17" s="52">
+        <v>174.07499999999999</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="37">
+        <v>-74669.519208528625</v>
+      </c>
+      <c r="G17" s="37">
+        <v>39383.086267668266</v>
+      </c>
+      <c r="H17" s="37">
+        <v>-1.8959793729987313</v>
+      </c>
+      <c r="I17" s="37">
+        <v>8.0409322377460957E-2</v>
+      </c>
+      <c r="J17" s="37">
+        <v>-159751.50437596938</v>
+      </c>
+      <c r="K17" s="37">
+        <v>10412.465958912129</v>
+      </c>
+      <c r="L17" s="37">
+        <v>-159751.50437596938</v>
+      </c>
+      <c r="M17" s="37">
+        <v>10412.465958912129</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="91">
+        <v>336950</v>
+      </c>
+      <c r="B18" s="43">
+        <v>1980857.9166666667</v>
+      </c>
+      <c r="C18" s="46">
+        <v>260.33333333333331</v>
+      </c>
+      <c r="D18" s="52">
+        <v>178.38333333333333</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="37">
+        <v>7.4291972376937687E-2</v>
+      </c>
+      <c r="G18" s="37">
+        <v>6.1160849259708973E-2</v>
+      </c>
+      <c r="H18" s="37">
+        <v>1.2146981815355387</v>
+      </c>
+      <c r="I18" s="96">
+        <v>0.24608449916771574</v>
+      </c>
+      <c r="J18" s="37">
+        <v>-5.783800936638317E-2</v>
+      </c>
+      <c r="K18" s="37">
+        <v>0.20642195412025854</v>
+      </c>
+      <c r="L18" s="37">
+        <v>-5.783800936638317E-2</v>
+      </c>
+      <c r="M18" s="37">
+        <v>0.20642195412025854</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="91">
+        <v>396800</v>
+      </c>
+      <c r="B19" s="43">
+        <v>2076959.8333333333</v>
+      </c>
+      <c r="C19" s="46">
+        <v>270.04283333333331</v>
+      </c>
+      <c r="D19" s="52">
+        <v>187.14324999999999</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="37">
+        <v>-1173.4837332589241</v>
+      </c>
+      <c r="G19" s="37">
+        <v>890.24224174860672</v>
+      </c>
+      <c r="H19" s="37">
+        <v>-1.3181622689055696</v>
+      </c>
+      <c r="I19" s="96">
+        <v>0.2102039259949624</v>
+      </c>
+      <c r="J19" s="37">
+        <v>-3096.7351689917859</v>
+      </c>
+      <c r="K19" s="37">
+        <v>749.76770247393802</v>
+      </c>
+      <c r="L19" s="37">
+        <v>-3096.7351689917859</v>
+      </c>
+      <c r="M19" s="37">
+        <v>749.76770247393802</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="38">
+        <v>3193.3731417028871</v>
+      </c>
+      <c r="G20" s="38">
+        <v>1701.2883270725758</v>
+      </c>
+      <c r="H20" s="38">
+        <v>1.8770323001026856</v>
+      </c>
+      <c r="I20" s="97">
+        <v>8.3135375042381499E-2</v>
+      </c>
+      <c r="J20" s="38">
+        <v>-482.03683571072588</v>
+      </c>
+      <c r="K20" s="38">
+        <v>6868.7831191165005</v>
+      </c>
+      <c r="L20" s="38">
+        <v>-482.03683571072588</v>
+      </c>
+      <c r="M20" s="38">
+        <v>6868.7831191165005</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF20C473-D9DE-4D69-A0B0-A5573D6093BA}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="86">
+        <v>25279.416666666668</v>
+      </c>
+      <c r="B2" s="43">
+        <v>1278679</v>
+      </c>
+      <c r="C2" s="44">
+        <v>1834.5416666666667</v>
+      </c>
+      <c r="D2" s="23">
+        <v>1.875</v>
+      </c>
+      <c r="E2" s="86">
+        <v>1006151</v>
+      </c>
+      <c r="F2" s="86">
+        <v>1114935.3333333333</v>
+      </c>
+      <c r="G2" s="45">
+        <v>349.08499999999998</v>
+      </c>
+      <c r="H2" s="46">
+        <v>162.14166666666668</v>
+      </c>
+      <c r="I2" s="52">
+        <v>114.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="86">
+        <v>25927.916666666668</v>
+      </c>
+      <c r="B3" s="43">
+        <v>1372072.25</v>
+      </c>
+      <c r="C3" s="44">
+        <v>1808.2666666666667</v>
+      </c>
+      <c r="D3" s="23">
+        <v>2.375</v>
+      </c>
+      <c r="E3" s="86">
+        <v>1069945.0833333333</v>
+      </c>
+      <c r="F3" s="86">
+        <v>1164342.5</v>
+      </c>
+      <c r="G3" s="45">
+        <v>374.08499999999998</v>
+      </c>
+      <c r="H3" s="46">
+        <v>169.15</v>
+      </c>
+      <c r="I3" s="52">
+        <v>126.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="86">
+        <v>27116.416666666668</v>
+      </c>
+      <c r="B4" s="43">
+        <v>1446353.0833333333</v>
+      </c>
+      <c r="C4" s="44">
+        <v>1925.325</v>
+      </c>
+      <c r="D4" s="23">
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="E4" s="86">
+        <v>1128208.1666666667</v>
+      </c>
+      <c r="F4" s="86">
+        <v>1147741.6666666667</v>
+      </c>
+      <c r="G4" s="45">
+        <v>378.25</v>
+      </c>
+      <c r="H4" s="46">
+        <v>184.95833333333334</v>
+      </c>
+      <c r="I4" s="52">
+        <v>131.86666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="86">
+        <v>27639.416666666668</v>
+      </c>
+      <c r="B5" s="43">
+        <v>1513006.75</v>
+      </c>
+      <c r="C5" s="44">
+        <v>1939.7583333333334</v>
+      </c>
+      <c r="D5" s="23">
+        <v>2.85</v>
+      </c>
+      <c r="E5" s="86">
+        <v>1156907</v>
+      </c>
+      <c r="F5" s="86">
+        <v>1075922.9166666667</v>
+      </c>
+      <c r="G5" s="45">
+        <v>358.85250000000002</v>
+      </c>
+      <c r="H5" s="46">
+        <v>191.20833333333334</v>
+      </c>
+      <c r="I5" s="52">
+        <v>136.40833333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="86">
+        <v>27685.75</v>
+      </c>
+      <c r="B6" s="43">
+        <v>1363445.5833333333</v>
+      </c>
+      <c r="C6" s="44">
+        <v>1909.175</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2.625</v>
+      </c>
+      <c r="E6" s="86">
+        <v>989210.5</v>
+      </c>
+      <c r="F6" s="86">
+        <v>912243</v>
+      </c>
+      <c r="G6" s="45">
+        <v>338.9375</v>
+      </c>
+      <c r="H6" s="46">
+        <v>197.03333333333333</v>
+      </c>
+      <c r="I6" s="52">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="86">
+        <v>28346.416666666668</v>
+      </c>
+      <c r="B7" s="43">
+        <v>1382707.1666666667</v>
+      </c>
+      <c r="C7" s="44">
+        <v>2007.2333333333333</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="E7" s="86">
+        <v>1088792.9166666667</v>
+      </c>
+      <c r="F7" s="86">
+        <v>811522.66666666663</v>
+      </c>
+      <c r="G7" s="45">
+        <v>325.10500000000002</v>
+      </c>
+      <c r="H7" s="46">
+        <v>196.125</v>
+      </c>
+      <c r="I7" s="52">
+        <v>135.30000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="86">
+        <v>29929.416666666668</v>
+      </c>
+      <c r="B8" s="43">
+        <v>1521965.6666666667</v>
+      </c>
+      <c r="C8" s="44">
+        <v>2039.7833333333333</v>
+      </c>
+      <c r="D8" s="23">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E8" s="86">
+        <v>1207633.4166666667</v>
+      </c>
+      <c r="F8" s="86">
+        <v>790567.75</v>
+      </c>
+      <c r="G8" s="45">
+        <v>312.58</v>
+      </c>
+      <c r="H8" s="46">
+        <v>198.00833333333333</v>
+      </c>
+      <c r="I8" s="52">
+        <v>135.03333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="86">
+        <v>29561.75</v>
+      </c>
+      <c r="B9" s="43">
+        <v>1619087.0833333333</v>
+      </c>
+      <c r="C9" s="44">
+        <v>2128.2166666666667</v>
+      </c>
+      <c r="D9" s="23">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="E9" s="86">
+        <v>1266027.4166666667</v>
+      </c>
+      <c r="F9" s="86">
+        <v>853534.83333333337</v>
+      </c>
+      <c r="G9" s="45">
+        <v>311.77</v>
+      </c>
+      <c r="H9" s="46">
+        <v>200.24166666666667</v>
+      </c>
+      <c r="I9" s="52">
+        <v>137.60833333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="86">
+        <v>30312.416666666668</v>
+      </c>
+      <c r="B10" s="43">
+        <v>1688290.6666666667</v>
+      </c>
+      <c r="C10" s="44">
+        <v>2179.6</v>
+      </c>
+      <c r="D10" s="23">
+        <v>2</v>
+      </c>
+      <c r="E10" s="86">
+        <v>1306333.8333333333</v>
+      </c>
+      <c r="F10" s="86">
+        <v>912339.58333333337</v>
+      </c>
+      <c r="G10" s="45">
+        <v>323.53500000000003</v>
+      </c>
+      <c r="H10" s="46">
+        <v>202.36666666666667</v>
+      </c>
+      <c r="I10" s="52">
+        <v>141.64166666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="86">
+        <v>30335.833333333332</v>
+      </c>
+      <c r="B11" s="43">
+        <v>1769028</v>
+      </c>
+      <c r="C11" s="44">
+        <v>2216.1166666666668</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="E11" s="86">
+        <v>1345717.5</v>
+      </c>
+      <c r="F11" s="86">
+        <v>1015449.9166666666</v>
+      </c>
+      <c r="G11" s="45">
+        <v>339.79</v>
+      </c>
+      <c r="H11" s="46">
+        <v>207.00833333333333</v>
+      </c>
+      <c r="I11" s="52">
+        <v>147.45833333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="86">
+        <v>31814.833333333332</v>
+      </c>
+      <c r="B12" s="43">
+        <v>1814472.5833333333</v>
+      </c>
+      <c r="C12" s="44">
+        <v>2270.3166666666666</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1.875</v>
+      </c>
+      <c r="E12" s="86">
+        <v>1303234</v>
+      </c>
+      <c r="F12" s="86">
+        <v>1138584</v>
+      </c>
+      <c r="G12" s="45">
+        <v>357.30250000000001</v>
+      </c>
+      <c r="H12" s="46">
+        <v>208.35</v>
+      </c>
+      <c r="I12" s="52">
+        <v>153.64166666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="86">
+        <v>34700.333333333336</v>
+      </c>
+      <c r="B13" s="43">
+        <v>1837068.9166666667</v>
+      </c>
+      <c r="C13" s="44">
+        <v>2287.0416666666665</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1.75</v>
+      </c>
+      <c r="E13" s="86">
+        <v>1292899.0833333333</v>
+      </c>
+      <c r="F13" s="86">
+        <v>1223908.9166666667</v>
+      </c>
+      <c r="G13" s="45">
+        <v>376.06</v>
+      </c>
+      <c r="H13" s="46">
+        <v>215.49166666666667</v>
+      </c>
+      <c r="I13" s="52">
+        <v>158.45833333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="86">
+        <v>37479</v>
+      </c>
+      <c r="B14" s="43">
+        <v>1886857.25</v>
+      </c>
+      <c r="C14" s="44">
+        <v>2261.8666666666668</v>
+      </c>
+      <c r="D14" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="E14" s="86">
+        <v>1359584.3333333333</v>
+      </c>
+      <c r="F14" s="86">
+        <v>1280851.9166666667</v>
+      </c>
+      <c r="G14" s="45">
+        <v>396.59500000000003</v>
+      </c>
+      <c r="H14" s="46">
+        <v>228.95833333333334</v>
+      </c>
+      <c r="I14" s="52">
+        <v>163.01666666666668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="86">
+        <v>40278.833333333336</v>
+      </c>
+      <c r="B15" s="43">
+        <v>1960528.8333333333</v>
+      </c>
+      <c r="C15" s="44">
+        <v>2511.5666666666666</v>
+      </c>
+      <c r="D15" s="23">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="E15" s="86">
+        <v>1436883.4166666667</v>
+      </c>
+      <c r="F15" s="86">
+        <v>1333472.4166666667</v>
+      </c>
+      <c r="G15" s="45">
+        <v>418.6225</v>
+      </c>
+      <c r="H15" s="46">
+        <v>244.29166666666666</v>
+      </c>
+      <c r="I15" s="52">
+        <v>168.96666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="86">
+        <v>43550.75</v>
+      </c>
+      <c r="B16" s="43">
+        <v>2043902.3333333333</v>
+      </c>
+      <c r="C16" s="44">
+        <v>2594.3333333333335</v>
+      </c>
+      <c r="D16" s="23">
+        <v>1.375</v>
+      </c>
+      <c r="E16" s="86">
+        <v>1434971.1666666667</v>
+      </c>
+      <c r="F16" s="86">
+        <v>1389526.3333333333</v>
+      </c>
+      <c r="G16" s="45">
+        <v>437.95749999999998</v>
+      </c>
+      <c r="H16" s="46">
+        <v>252.67500000000001</v>
+      </c>
+      <c r="I16" s="52">
+        <v>174.07499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="86">
+        <v>69482.666666666672</v>
+      </c>
+      <c r="B17" s="43">
+        <v>1980857.9166666667</v>
+      </c>
+      <c r="C17" s="44">
+        <v>2539.35</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E17" s="86">
+        <v>1392667.6666666667</v>
+      </c>
+      <c r="F17" s="86">
+        <v>1469766.5</v>
+      </c>
+      <c r="G17" s="45">
+        <v>460.45749999999998</v>
+      </c>
+      <c r="H17" s="46">
+        <v>260.33333333333331</v>
+      </c>
+      <c r="I17" s="52">
+        <v>178.38333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="86">
+        <v>81401.75</v>
+      </c>
+      <c r="B18" s="43">
+        <v>2076959.8333333333</v>
+      </c>
+      <c r="C18" s="44">
+        <v>2523.6583333333333</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="86">
+        <v>1642944.4166666667</v>
+      </c>
+      <c r="F18" s="86">
+        <v>1588078.5833333333</v>
+      </c>
+      <c r="G18" s="45">
+        <v>523.17999999999995</v>
+      </c>
+      <c r="H18" s="46">
+        <v>270.04283333333331</v>
+      </c>
+      <c r="I18" s="52">
+        <v>187.14324999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A20:E20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727CF8CA-0D12-43B2-B6CC-74C31DE86A95}">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="13.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="51.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="91">
+        <v>236550</v>
+      </c>
+      <c r="B3" s="43">
+        <v>1278679</v>
+      </c>
+      <c r="C3" s="44">
+        <v>1834.5416666666667</v>
+      </c>
+      <c r="D3" s="45">
+        <v>349.08499999999998</v>
+      </c>
+      <c r="E3" s="46">
+        <v>162.14166666666668</v>
+      </c>
+      <c r="F3" s="52">
+        <v>114.8</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="91">
+        <v>243750</v>
+      </c>
+      <c r="B4" s="43">
+        <v>1372072.25</v>
+      </c>
+      <c r="C4" s="44">
+        <v>1808.2666666666667</v>
+      </c>
+      <c r="D4" s="45">
+        <v>374.08499999999998</v>
+      </c>
+      <c r="E4" s="46">
+        <v>169.15</v>
+      </c>
+      <c r="F4" s="52">
+        <v>126.65</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0.97625898577340542</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="91">
+        <v>244950</v>
+      </c>
+      <c r="B5" s="43">
+        <v>1446353.0833333333</v>
+      </c>
+      <c r="C5" s="44">
+        <v>1925.325</v>
+      </c>
+      <c r="D5" s="45">
+        <v>378.25</v>
+      </c>
+      <c r="E5" s="46">
+        <v>184.95833333333334</v>
+      </c>
+      <c r="F5" s="52">
+        <v>131.86666666666667</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="37">
+        <v>0.95308160730331826</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="91">
+        <v>229550</v>
+      </c>
+      <c r="B6" s="43">
+        <v>1513006.75</v>
+      </c>
+      <c r="C6" s="44">
+        <v>1939.7583333333334</v>
+      </c>
+      <c r="D6" s="45">
+        <v>358.85250000000002</v>
+      </c>
+      <c r="E6" s="46">
+        <v>191.20833333333334</v>
+      </c>
+      <c r="F6" s="52">
+        <v>136.40833333333333</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="37">
+        <v>0.93175506516846296</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="91">
+        <v>215650</v>
+      </c>
+      <c r="B7" s="43">
+        <v>1363445.5833333333</v>
+      </c>
+      <c r="C7" s="44">
+        <v>1909.175</v>
+      </c>
+      <c r="D7" s="45">
+        <v>338.9375</v>
+      </c>
+      <c r="E7" s="46">
+        <v>197.03333333333333</v>
+      </c>
+      <c r="F7" s="52">
+        <v>138</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="37">
+        <v>13383.835961025643</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="91">
+        <v>222700</v>
+      </c>
+      <c r="B8" s="43">
+        <v>1382707.1666666667</v>
+      </c>
+      <c r="C8" s="44">
+        <v>2007.2333333333333</v>
+      </c>
+      <c r="D8" s="45">
+        <v>325.10500000000002</v>
+      </c>
+      <c r="E8" s="46">
+        <v>196.125</v>
+      </c>
+      <c r="F8" s="52">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="38">
+        <v>17</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="91">
+        <v>224900</v>
+      </c>
+      <c r="B9" s="43">
+        <v>1521965.6666666667</v>
+      </c>
+      <c r="C9" s="44">
+        <v>2039.7833333333333</v>
+      </c>
+      <c r="D9" s="45">
+        <v>312.58</v>
+      </c>
+      <c r="E9" s="46">
+        <v>198.00833333333333</v>
+      </c>
+      <c r="F9" s="52">
+        <v>135.03333333333333</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="91">
+        <v>244400</v>
+      </c>
+      <c r="B10" s="43">
+        <v>1619087.0833333333</v>
+      </c>
+      <c r="C10" s="44">
+        <v>2128.2166666666667</v>
+      </c>
+      <c r="D10" s="45">
+        <v>311.77</v>
+      </c>
+      <c r="E10" s="46">
+        <v>200.24166666666667</v>
+      </c>
+      <c r="F10" s="52">
+        <v>137.60833333333332</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="91">
+        <v>266225</v>
+      </c>
+      <c r="B11" s="43">
+        <v>1688290.6666666667</v>
+      </c>
+      <c r="C11" s="44">
+        <v>2179.6</v>
+      </c>
+      <c r="D11" s="45">
+        <v>323.53500000000003</v>
+      </c>
+      <c r="E11" s="46">
+        <v>202.36666666666667</v>
+      </c>
+      <c r="F11" s="52">
+        <v>141.64166666666668</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="91">
+        <v>285775</v>
+      </c>
+      <c r="B12" s="43">
+        <v>1769028</v>
+      </c>
+      <c r="C12" s="44">
+        <v>2216.1166666666668</v>
+      </c>
+      <c r="D12" s="45">
+        <v>339.79</v>
+      </c>
+      <c r="E12" s="46">
+        <v>207.00833333333333</v>
+      </c>
+      <c r="F12" s="52">
+        <v>147.45833333333334</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="37">
+        <v>5</v>
+      </c>
+      <c r="I12" s="37">
+        <v>40025877137.593102</v>
+      </c>
+      <c r="J12" s="37">
+        <v>8005175427.5186205</v>
+      </c>
+      <c r="K12" s="37">
+        <v>44.689926818733326</v>
+      </c>
+      <c r="L12" s="37">
+        <v>6.1035019012401987E-7</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="91">
+        <v>294150</v>
+      </c>
+      <c r="B13" s="43">
+        <v>1814472.5833333333</v>
+      </c>
+      <c r="C13" s="44">
+        <v>2270.3166666666666</v>
+      </c>
+      <c r="D13" s="45">
+        <v>357.30250000000001</v>
+      </c>
+      <c r="E13" s="46">
+        <v>208.35</v>
+      </c>
+      <c r="F13" s="52">
+        <v>153.64166666666668</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="37">
+        <v>11</v>
+      </c>
+      <c r="I13" s="37">
+        <v>1970397715.3480754</v>
+      </c>
+      <c r="J13" s="37">
+        <v>179127065.03164321</v>
+      </c>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="91">
+        <v>305125</v>
+      </c>
+      <c r="B14" s="43">
+        <v>1837068.9166666667</v>
+      </c>
+      <c r="C14" s="44">
+        <v>2287.0416666666665</v>
+      </c>
+      <c r="D14" s="45">
+        <v>376.06</v>
+      </c>
+      <c r="E14" s="46">
+        <v>215.49166666666667</v>
+      </c>
+      <c r="F14" s="52">
+        <v>158.45833333333334</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="38">
+        <v>16</v>
+      </c>
+      <c r="I14" s="38">
+        <v>41996274852.941177</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="91">
+        <v>322425</v>
+      </c>
+      <c r="B15" s="43">
+        <v>1886857.25</v>
+      </c>
+      <c r="C15" s="44">
+        <v>2261.8666666666668</v>
+      </c>
+      <c r="D15" s="45">
+        <v>396.59500000000003</v>
+      </c>
+      <c r="E15" s="46">
+        <v>228.95833333333334</v>
+      </c>
+      <c r="F15" s="52">
+        <v>163.01666666666668</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="91">
+        <v>325275</v>
+      </c>
+      <c r="B16" s="43">
+        <v>1960528.8333333333</v>
+      </c>
+      <c r="C16" s="44">
+        <v>2511.5666666666666</v>
+      </c>
+      <c r="D16" s="45">
+        <v>418.6225</v>
+      </c>
+      <c r="E16" s="46">
+        <v>244.29166666666666</v>
+      </c>
+      <c r="F16" s="52">
+        <v>168.96666666666667</v>
+      </c>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" s="39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="91">
+        <v>320250</v>
+      </c>
+      <c r="B17" s="43">
+        <v>2043902.3333333333</v>
+      </c>
+      <c r="C17" s="44">
+        <v>2594.3333333333335</v>
+      </c>
+      <c r="D17" s="45">
+        <v>437.95749999999998</v>
+      </c>
+      <c r="E17" s="46">
+        <v>252.67500000000001</v>
+      </c>
+      <c r="F17" s="52">
+        <v>174.07499999999999</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="37">
+        <v>-63670.038745762999</v>
+      </c>
+      <c r="I17" s="37">
+        <v>53617.318085019477</v>
+      </c>
+      <c r="J17" s="37">
+        <v>-1.1874901807808291</v>
+      </c>
+      <c r="K17" s="37">
+        <v>0.26004422702577468</v>
+      </c>
+      <c r="L17" s="37">
+        <v>-181680.96017480388</v>
+      </c>
+      <c r="M17" s="37">
+        <v>54340.882683277887</v>
+      </c>
+      <c r="N17" s="37">
+        <v>-181680.96017480388</v>
+      </c>
+      <c r="O17" s="37">
+        <v>54340.882683277887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="91">
+        <v>336950</v>
+      </c>
+      <c r="B18" s="43">
+        <v>1980857.9166666667</v>
+      </c>
+      <c r="C18" s="44">
+        <v>2539.35</v>
+      </c>
+      <c r="D18" s="45">
+        <v>460.45749999999998</v>
+      </c>
+      <c r="E18" s="46">
+        <v>260.33333333333331</v>
+      </c>
+      <c r="F18" s="52">
+        <v>178.38333333333333</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="37">
+        <v>0.1572198049768288</v>
+      </c>
+      <c r="I18" s="37">
+        <v>7.6079232297413757E-2</v>
+      </c>
+      <c r="J18" s="37">
+        <v>2.0665272273281516</v>
+      </c>
+      <c r="K18" s="96">
+        <v>6.3150316357490494E-2</v>
+      </c>
+      <c r="L18" s="37">
+        <v>-1.0229456300943351E-2</v>
+      </c>
+      <c r="M18" s="37">
+        <v>0.32466906625460096</v>
+      </c>
+      <c r="N18" s="37">
+        <v>-1.0229456300943351E-2</v>
+      </c>
+      <c r="O18" s="37">
+        <v>0.32466906625460096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="91">
+        <v>396800</v>
+      </c>
+      <c r="B19" s="43">
+        <v>2076959.8333333333</v>
+      </c>
+      <c r="C19" s="44">
+        <v>2523.6583333333333</v>
+      </c>
+      <c r="D19" s="45">
+        <v>523.17999999999995</v>
+      </c>
+      <c r="E19" s="46">
+        <v>270.04283333333331</v>
+      </c>
+      <c r="F19" s="52">
+        <v>187.14324999999999</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="37">
+        <v>-7.2395912714036443</v>
+      </c>
+      <c r="I19" s="37">
+        <v>76.199610963005441</v>
+      </c>
+      <c r="J19" s="37">
+        <v>-9.5008244529206753E-2</v>
+      </c>
+      <c r="K19" s="96">
+        <v>0.92601692616947606</v>
+      </c>
+      <c r="L19" s="37">
+        <v>-174.95380420573474</v>
+      </c>
+      <c r="M19" s="37">
+        <v>160.47462166292746</v>
+      </c>
+      <c r="N19" s="37">
+        <v>-174.95380420573474</v>
+      </c>
+      <c r="O19" s="37">
+        <v>160.47462166292746</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="37">
+        <v>430.90172828169341</v>
+      </c>
+      <c r="I20" s="37">
+        <v>112.866542309894</v>
+      </c>
+      <c r="J20" s="37">
+        <v>3.8177986094282974</v>
+      </c>
+      <c r="K20" s="96">
+        <v>2.8539895889769943E-3</v>
+      </c>
+      <c r="L20" s="37">
+        <v>182.48414358676169</v>
+      </c>
+      <c r="M20" s="37">
+        <v>679.31931297662516</v>
+      </c>
+      <c r="N20" s="37">
+        <v>182.48414358676169</v>
+      </c>
+      <c r="O20" s="37">
+        <v>679.31931297662516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="37">
+        <v>-651.87707177749496</v>
+      </c>
+      <c r="I21" s="37">
+        <v>835.26490734184267</v>
+      </c>
+      <c r="J21" s="37">
+        <v>-0.78044350486606284</v>
+      </c>
+      <c r="K21" s="96">
+        <v>0.45159770179459113</v>
+      </c>
+      <c r="L21" s="37">
+        <v>-2490.282737582208</v>
+      </c>
+      <c r="M21" s="37">
+        <v>1186.5285940272183</v>
+      </c>
+      <c r="N21" s="37">
+        <v>-2490.282737582208</v>
+      </c>
+      <c r="O21" s="37">
+        <v>1186.5285940272183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="38">
+        <v>460.81622425545555</v>
+      </c>
+      <c r="I22" s="38">
+        <v>1502.860821717212</v>
+      </c>
+      <c r="J22" s="38">
+        <v>0.30662601459589162</v>
+      </c>
+      <c r="K22" s="97">
+        <v>0.76485412942720055</v>
+      </c>
+      <c r="L22" s="38">
+        <v>-2846.9581420272539</v>
+      </c>
+      <c r="M22" s="38">
+        <v>3768.5905905381646</v>
+      </c>
+      <c r="N22" s="38">
+        <v>-2846.9581420272539</v>
+      </c>
+      <c r="O22" s="38">
+        <v>3768.5905905381646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF994EB8-5AEB-4E82-AEEE-6C9858B33146}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="112" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="112" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="107">
+        <v>25279.416666666668</v>
+      </c>
+      <c r="B2" s="107">
+        <v>1278679</v>
+      </c>
+      <c r="C2" s="108">
+        <v>1834.5416666666667</v>
+      </c>
+      <c r="D2" s="109">
+        <v>1.875</v>
+      </c>
+      <c r="E2" s="107">
+        <v>1006151</v>
+      </c>
+      <c r="F2" s="107">
+        <v>1114935.3333333333</v>
+      </c>
+      <c r="G2" s="110">
+        <v>349.08499999999998</v>
+      </c>
+      <c r="H2" s="111">
+        <v>162.14166666666668</v>
+      </c>
+      <c r="I2" s="111">
+        <v>114.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="107">
+        <v>25927.916666666668</v>
+      </c>
+      <c r="B3" s="107">
+        <v>1372072.25</v>
+      </c>
+      <c r="C3" s="108">
+        <v>1808.2666666666667</v>
+      </c>
+      <c r="D3" s="109">
+        <v>2.375</v>
+      </c>
+      <c r="E3" s="107">
+        <v>1069945.0833333333</v>
+      </c>
+      <c r="F3" s="107">
+        <v>1164342.5</v>
+      </c>
+      <c r="G3" s="110">
+        <v>374.08499999999998</v>
+      </c>
+      <c r="H3" s="111">
+        <v>169.15</v>
+      </c>
+      <c r="I3" s="111">
+        <v>126.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="107">
+        <v>27116.416666666668</v>
+      </c>
+      <c r="B4" s="107">
+        <v>1446353.0833333333</v>
+      </c>
+      <c r="C4" s="108">
+        <v>1925.325</v>
+      </c>
+      <c r="D4" s="109">
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="E4" s="107">
+        <v>1128208.1666666667</v>
+      </c>
+      <c r="F4" s="107">
+        <v>1147741.6666666667</v>
+      </c>
+      <c r="G4" s="110">
+        <v>378.25</v>
+      </c>
+      <c r="H4" s="111">
+        <v>184.95833333333334</v>
+      </c>
+      <c r="I4" s="111">
+        <v>131.86666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="107">
+        <v>27639.416666666668</v>
+      </c>
+      <c r="B5" s="107">
+        <v>1513006.75</v>
+      </c>
+      <c r="C5" s="108">
+        <v>1939.7583333333334</v>
+      </c>
+      <c r="D5" s="109">
+        <v>2.85</v>
+      </c>
+      <c r="E5" s="107">
+        <v>1156907</v>
+      </c>
+      <c r="F5" s="107">
+        <v>1075922.9166666667</v>
+      </c>
+      <c r="G5" s="110">
+        <v>358.85250000000002</v>
+      </c>
+      <c r="H5" s="111">
+        <v>191.20833333333334</v>
+      </c>
+      <c r="I5" s="111">
+        <v>136.40833333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="107">
+        <v>27685.75</v>
+      </c>
+      <c r="B6" s="107">
+        <v>1363445.5833333333</v>
+      </c>
+      <c r="C6" s="108">
+        <v>1909.175</v>
+      </c>
+      <c r="D6" s="109">
+        <v>2.625</v>
+      </c>
+      <c r="E6" s="107">
+        <v>989210.5</v>
+      </c>
+      <c r="F6" s="107">
+        <v>912243</v>
+      </c>
+      <c r="G6" s="110">
+        <v>338.9375</v>
+      </c>
+      <c r="H6" s="111">
+        <v>197.03333333333333</v>
+      </c>
+      <c r="I6" s="111">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="107">
+        <v>28346.416666666668</v>
+      </c>
+      <c r="B7" s="107">
+        <v>1382707.1666666667</v>
+      </c>
+      <c r="C7" s="108">
+        <v>2007.2333333333333</v>
+      </c>
+      <c r="D7" s="109">
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="E7" s="107">
+        <v>1088792.9166666667</v>
+      </c>
+      <c r="F7" s="107">
+        <v>811522.66666666663</v>
+      </c>
+      <c r="G7" s="110">
+        <v>325.10500000000002</v>
+      </c>
+      <c r="H7" s="111">
+        <v>196.125</v>
+      </c>
+      <c r="I7" s="111">
+        <v>135.30000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="107">
+        <v>29929.416666666668</v>
+      </c>
+      <c r="B8" s="107">
+        <v>1521965.6666666667</v>
+      </c>
+      <c r="C8" s="108">
+        <v>2039.7833333333333</v>
+      </c>
+      <c r="D8" s="109">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E8" s="107">
+        <v>1207633.4166666667</v>
+      </c>
+      <c r="F8" s="107">
+        <v>790567.75</v>
+      </c>
+      <c r="G8" s="110">
+        <v>312.58</v>
+      </c>
+      <c r="H8" s="111">
+        <v>198.00833333333333</v>
+      </c>
+      <c r="I8" s="111">
+        <v>135.03333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="107">
+        <v>29561.75</v>
+      </c>
+      <c r="B9" s="107">
+        <v>1619087.0833333333</v>
+      </c>
+      <c r="C9" s="108">
+        <v>2128.2166666666667</v>
+      </c>
+      <c r="D9" s="109">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="E9" s="107">
+        <v>1266027.4166666667</v>
+      </c>
+      <c r="F9" s="107">
+        <v>853534.83333333337</v>
+      </c>
+      <c r="G9" s="110">
+        <v>311.77</v>
+      </c>
+      <c r="H9" s="111">
+        <v>200.24166666666667</v>
+      </c>
+      <c r="I9" s="111">
+        <v>137.60833333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="107">
+        <v>30312.416666666668</v>
+      </c>
+      <c r="B10" s="107">
+        <v>1688290.6666666667</v>
+      </c>
+      <c r="C10" s="108">
+        <v>2179.6</v>
+      </c>
+      <c r="D10" s="109">
+        <v>2</v>
+      </c>
+      <c r="E10" s="107">
+        <v>1306333.8333333333</v>
+      </c>
+      <c r="F10" s="107">
+        <v>912339.58333333337</v>
+      </c>
+      <c r="G10" s="110">
+        <v>323.53500000000003</v>
+      </c>
+      <c r="H10" s="111">
+        <v>202.36666666666667</v>
+      </c>
+      <c r="I10" s="111">
+        <v>141.64166666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="107">
+        <v>30335.833333333332</v>
+      </c>
+      <c r="B11" s="107">
+        <v>1769028</v>
+      </c>
+      <c r="C11" s="108">
+        <v>2216.1166666666668</v>
+      </c>
+      <c r="D11" s="109">
+        <v>1.9</v>
+      </c>
+      <c r="E11" s="107">
+        <v>1345717.5</v>
+      </c>
+      <c r="F11" s="107">
+        <v>1015449.9166666666</v>
+      </c>
+      <c r="G11" s="110">
+        <v>339.79</v>
+      </c>
+      <c r="H11" s="111">
+        <v>207.00833333333333</v>
+      </c>
+      <c r="I11" s="111">
+        <v>147.45833333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="107">
+        <v>31814.833333333332</v>
+      </c>
+      <c r="B12" s="107">
+        <v>1814472.5833333333</v>
+      </c>
+      <c r="C12" s="108">
+        <v>2270.3166666666666</v>
+      </c>
+      <c r="D12" s="109">
+        <v>1.875</v>
+      </c>
+      <c r="E12" s="107">
+        <v>1303234</v>
+      </c>
+      <c r="F12" s="107">
+        <v>1138584</v>
+      </c>
+      <c r="G12" s="110">
+        <v>357.30250000000001</v>
+      </c>
+      <c r="H12" s="111">
+        <v>208.35</v>
+      </c>
+      <c r="I12" s="111">
+        <v>153.64166666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="107">
+        <v>34700.333333333336</v>
+      </c>
+      <c r="B13" s="107">
+        <v>1837068.9166666667</v>
+      </c>
+      <c r="C13" s="108">
+        <v>2287.0416666666665</v>
+      </c>
+      <c r="D13" s="109">
+        <v>1.75</v>
+      </c>
+      <c r="E13" s="107">
+        <v>1292899.0833333333</v>
+      </c>
+      <c r="F13" s="107">
+        <v>1223908.9166666667</v>
+      </c>
+      <c r="G13" s="110">
+        <v>376.06</v>
+      </c>
+      <c r="H13" s="111">
+        <v>215.49166666666667</v>
+      </c>
+      <c r="I13" s="111">
+        <v>158.45833333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="107">
+        <v>37479</v>
+      </c>
+      <c r="B14" s="107">
+        <v>1886857.25</v>
+      </c>
+      <c r="C14" s="108">
+        <v>2261.8666666666668</v>
+      </c>
+      <c r="D14" s="109">
+        <v>1.6</v>
+      </c>
+      <c r="E14" s="107">
+        <v>1359584.3333333333</v>
+      </c>
+      <c r="F14" s="107">
+        <v>1280851.9166666667</v>
+      </c>
+      <c r="G14" s="110">
+        <v>396.59500000000003</v>
+      </c>
+      <c r="H14" s="111">
+        <v>228.95833333333334</v>
+      </c>
+      <c r="I14" s="111">
+        <v>163.01666666666668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="107">
+        <v>40278.833333333336</v>
+      </c>
+      <c r="B15" s="107">
+        <v>1960528.8333333333</v>
+      </c>
+      <c r="C15" s="108">
+        <v>2511.5666666666666</v>
+      </c>
+      <c r="D15" s="109">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="E15" s="107">
+        <v>1436883.4166666667</v>
+      </c>
+      <c r="F15" s="107">
+        <v>1333472.4166666667</v>
+      </c>
+      <c r="G15" s="110">
+        <v>418.6225</v>
+      </c>
+      <c r="H15" s="111">
+        <v>244.29166666666666</v>
+      </c>
+      <c r="I15" s="111">
+        <v>168.96666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="107">
+        <v>43550.75</v>
+      </c>
+      <c r="B16" s="107">
+        <v>2043902.3333333333</v>
+      </c>
+      <c r="C16" s="108">
+        <v>2594.3333333333335</v>
+      </c>
+      <c r="D16" s="109">
+        <v>1.375</v>
+      </c>
+      <c r="E16" s="107">
+        <v>1434971.1666666667</v>
+      </c>
+      <c r="F16" s="107">
+        <v>1389526.3333333333</v>
+      </c>
+      <c r="G16" s="110">
+        <v>437.95749999999998</v>
+      </c>
+      <c r="H16" s="111">
+        <v>252.67500000000001</v>
+      </c>
+      <c r="I16" s="111">
+        <v>174.07499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="107">
+        <v>69482.666666666672</v>
+      </c>
+      <c r="B17" s="107">
+        <v>1980857.9166666667</v>
+      </c>
+      <c r="C17" s="108">
+        <v>2539.35</v>
+      </c>
+      <c r="D17" s="109">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E17" s="107">
+        <v>1392667.6666666667</v>
+      </c>
+      <c r="F17" s="107">
+        <v>1469766.5</v>
+      </c>
+      <c r="G17" s="110">
+        <v>460.45749999999998</v>
+      </c>
+      <c r="H17" s="111">
+        <v>260.33333333333331</v>
+      </c>
+      <c r="I17" s="111">
+        <v>178.38333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="107">
+        <v>81401.75</v>
+      </c>
+      <c r="B18" s="107">
+        <v>2076959.8333333333</v>
+      </c>
+      <c r="C18" s="108">
+        <v>2523.6583333333333</v>
+      </c>
+      <c r="D18" s="109">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="107">
+        <v>1642944.4166666667</v>
+      </c>
+      <c r="F18" s="107">
+        <v>1588078.5833333333</v>
+      </c>
+      <c r="G18" s="110">
+        <v>523.17999999999995</v>
+      </c>
+      <c r="H18" s="111">
+        <v>270.04283333333331</v>
+      </c>
+      <c r="I18" s="111">
+        <v>187.14324999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_obliczenia.xlsx
+++ b/Excel_obliczenia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Projekty\Studia\VI_semestr\Ekonometria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A359454B-8260-44B5-ADCD-38CEB3114805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F2059F-D040-4A31-9CF1-DBFF223A65A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wstępne_odrzucenie" sheetId="8" r:id="rId1"/>
@@ -1016,6 +1016,24 @@
     <xf numFmtId="0" fontId="11" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1039,24 +1057,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1354,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362B206C-BC67-475E-A365-4B0E4AB8687F}">
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AC16:AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,37 +1380,37 @@
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="29"/>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="99" t="s">
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="101"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="107"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
@@ -3170,10 +3170,10 @@
       <c r="A21" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="Z21" s="104" t="s">
+      <c r="Z21" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="AA21" s="105"/>
+      <c r="AA21" s="111"/>
       <c r="AB21" s="20" t="s">
         <v>43</v>
       </c>
@@ -3743,13 +3743,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="106" t="s">
+      <c r="A20" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5276,13 +5276,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="106" t="s">
+      <c r="A20" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6275,7 +6275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF994EB8-5AEB-4E82-AEEE-6C9858B33146}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -6285,524 +6285,524 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="I1" s="104" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="107">
+      <c r="A2" s="99">
         <v>25279.416666666668</v>
       </c>
-      <c r="B2" s="107">
+      <c r="B2" s="99">
         <v>1278679</v>
       </c>
-      <c r="C2" s="108">
+      <c r="C2" s="100">
         <v>1834.5416666666667</v>
       </c>
-      <c r="D2" s="109">
+      <c r="D2" s="101">
         <v>1.875</v>
       </c>
-      <c r="E2" s="107">
+      <c r="E2" s="99">
         <v>1006151</v>
       </c>
-      <c r="F2" s="107">
+      <c r="F2" s="99">
         <v>1114935.3333333333</v>
       </c>
-      <c r="G2" s="110">
+      <c r="G2" s="102">
         <v>349.08499999999998</v>
       </c>
-      <c r="H2" s="111">
+      <c r="H2" s="103">
         <v>162.14166666666668</v>
       </c>
-      <c r="I2" s="111">
+      <c r="I2" s="103">
         <v>114.8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="107">
+      <c r="A3" s="99">
         <v>25927.916666666668</v>
       </c>
-      <c r="B3" s="107">
+      <c r="B3" s="99">
         <v>1372072.25</v>
       </c>
-      <c r="C3" s="108">
+      <c r="C3" s="100">
         <v>1808.2666666666667</v>
       </c>
-      <c r="D3" s="109">
+      <c r="D3" s="101">
         <v>2.375</v>
       </c>
-      <c r="E3" s="107">
+      <c r="E3" s="99">
         <v>1069945.0833333333</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="99">
         <v>1164342.5</v>
       </c>
-      <c r="G3" s="110">
+      <c r="G3" s="102">
         <v>374.08499999999998</v>
       </c>
-      <c r="H3" s="111">
+      <c r="H3" s="103">
         <v>169.15</v>
       </c>
-      <c r="I3" s="111">
+      <c r="I3" s="103">
         <v>126.65</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="107">
+      <c r="A4" s="99">
         <v>27116.416666666668</v>
       </c>
-      <c r="B4" s="107">
+      <c r="B4" s="99">
         <v>1446353.0833333333</v>
       </c>
-      <c r="C4" s="108">
+      <c r="C4" s="100">
         <v>1925.325</v>
       </c>
-      <c r="D4" s="109">
+      <c r="D4" s="101">
         <v>2.7250000000000001</v>
       </c>
-      <c r="E4" s="107">
+      <c r="E4" s="99">
         <v>1128208.1666666667</v>
       </c>
-      <c r="F4" s="107">
+      <c r="F4" s="99">
         <v>1147741.6666666667</v>
       </c>
-      <c r="G4" s="110">
+      <c r="G4" s="102">
         <v>378.25</v>
       </c>
-      <c r="H4" s="111">
+      <c r="H4" s="103">
         <v>184.95833333333334</v>
       </c>
-      <c r="I4" s="111">
+      <c r="I4" s="103">
         <v>131.86666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="107">
+      <c r="A5" s="99">
         <v>27639.416666666668</v>
       </c>
-      <c r="B5" s="107">
+      <c r="B5" s="99">
         <v>1513006.75</v>
       </c>
-      <c r="C5" s="108">
+      <c r="C5" s="100">
         <v>1939.7583333333334</v>
       </c>
-      <c r="D5" s="109">
+      <c r="D5" s="101">
         <v>2.85</v>
       </c>
-      <c r="E5" s="107">
+      <c r="E5" s="99">
         <v>1156907</v>
       </c>
-      <c r="F5" s="107">
+      <c r="F5" s="99">
         <v>1075922.9166666667</v>
       </c>
-      <c r="G5" s="110">
+      <c r="G5" s="102">
         <v>358.85250000000002</v>
       </c>
-      <c r="H5" s="111">
+      <c r="H5" s="103">
         <v>191.20833333333334</v>
       </c>
-      <c r="I5" s="111">
+      <c r="I5" s="103">
         <v>136.40833333333333</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="107">
+      <c r="A6" s="99">
         <v>27685.75</v>
       </c>
-      <c r="B6" s="107">
+      <c r="B6" s="99">
         <v>1363445.5833333333</v>
       </c>
-      <c r="C6" s="108">
+      <c r="C6" s="100">
         <v>1909.175</v>
       </c>
-      <c r="D6" s="109">
+      <c r="D6" s="101">
         <v>2.625</v>
       </c>
-      <c r="E6" s="107">
+      <c r="E6" s="99">
         <v>989210.5</v>
       </c>
-      <c r="F6" s="107">
+      <c r="F6" s="99">
         <v>912243</v>
       </c>
-      <c r="G6" s="110">
+      <c r="G6" s="102">
         <v>338.9375</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="103">
         <v>197.03333333333333</v>
       </c>
-      <c r="I6" s="111">
+      <c r="I6" s="103">
         <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="107">
+      <c r="A7" s="99">
         <v>28346.416666666668</v>
       </c>
-      <c r="B7" s="107">
+      <c r="B7" s="99">
         <v>1382707.1666666667</v>
       </c>
-      <c r="C7" s="108">
+      <c r="C7" s="100">
         <v>2007.2333333333333</v>
       </c>
-      <c r="D7" s="109">
+      <c r="D7" s="101">
         <v>2.5750000000000002</v>
       </c>
-      <c r="E7" s="107">
+      <c r="E7" s="99">
         <v>1088792.9166666667</v>
       </c>
-      <c r="F7" s="107">
+      <c r="F7" s="99">
         <v>811522.66666666663</v>
       </c>
-      <c r="G7" s="110">
+      <c r="G7" s="102">
         <v>325.10500000000002</v>
       </c>
-      <c r="H7" s="111">
+      <c r="H7" s="103">
         <v>196.125</v>
       </c>
-      <c r="I7" s="111">
+      <c r="I7" s="103">
         <v>135.30000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="107">
+      <c r="A8" s="99">
         <v>29929.416666666668</v>
       </c>
-      <c r="B8" s="107">
+      <c r="B8" s="99">
         <v>1521965.6666666667</v>
       </c>
-      <c r="C8" s="108">
+      <c r="C8" s="100">
         <v>2039.7833333333333</v>
       </c>
-      <c r="D8" s="109">
+      <c r="D8" s="101">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E8" s="107">
+      <c r="E8" s="99">
         <v>1207633.4166666667</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="99">
         <v>790567.75</v>
       </c>
-      <c r="G8" s="110">
+      <c r="G8" s="102">
         <v>312.58</v>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="103">
         <v>198.00833333333333</v>
       </c>
-      <c r="I8" s="111">
+      <c r="I8" s="103">
         <v>135.03333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="107">
+      <c r="A9" s="99">
         <v>29561.75</v>
       </c>
-      <c r="B9" s="107">
+      <c r="B9" s="99">
         <v>1619087.0833333333</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="100">
         <v>2128.2166666666667</v>
       </c>
-      <c r="D9" s="109">
+      <c r="D9" s="101">
         <v>2.0249999999999999</v>
       </c>
-      <c r="E9" s="107">
+      <c r="E9" s="99">
         <v>1266027.4166666667</v>
       </c>
-      <c r="F9" s="107">
+      <c r="F9" s="99">
         <v>853534.83333333337</v>
       </c>
-      <c r="G9" s="110">
+      <c r="G9" s="102">
         <v>311.77</v>
       </c>
-      <c r="H9" s="111">
+      <c r="H9" s="103">
         <v>200.24166666666667</v>
       </c>
-      <c r="I9" s="111">
+      <c r="I9" s="103">
         <v>137.60833333333332</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="107">
+      <c r="A10" s="99">
         <v>30312.416666666668</v>
       </c>
-      <c r="B10" s="107">
+      <c r="B10" s="99">
         <v>1688290.6666666667</v>
       </c>
-      <c r="C10" s="108">
+      <c r="C10" s="100">
         <v>2179.6</v>
       </c>
-      <c r="D10" s="109">
+      <c r="D10" s="101">
         <v>2</v>
       </c>
-      <c r="E10" s="107">
+      <c r="E10" s="99">
         <v>1306333.8333333333</v>
       </c>
-      <c r="F10" s="107">
+      <c r="F10" s="99">
         <v>912339.58333333337</v>
       </c>
-      <c r="G10" s="110">
+      <c r="G10" s="102">
         <v>323.53500000000003</v>
       </c>
-      <c r="H10" s="111">
+      <c r="H10" s="103">
         <v>202.36666666666667</v>
       </c>
-      <c r="I10" s="111">
+      <c r="I10" s="103">
         <v>141.64166666666668</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="107">
+      <c r="A11" s="99">
         <v>30335.833333333332</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="99">
         <v>1769028</v>
       </c>
-      <c r="C11" s="108">
+      <c r="C11" s="100">
         <v>2216.1166666666668</v>
       </c>
-      <c r="D11" s="109">
+      <c r="D11" s="101">
         <v>1.9</v>
       </c>
-      <c r="E11" s="107">
+      <c r="E11" s="99">
         <v>1345717.5</v>
       </c>
-      <c r="F11" s="107">
+      <c r="F11" s="99">
         <v>1015449.9166666666</v>
       </c>
-      <c r="G11" s="110">
+      <c r="G11" s="102">
         <v>339.79</v>
       </c>
-      <c r="H11" s="111">
+      <c r="H11" s="103">
         <v>207.00833333333333</v>
       </c>
-      <c r="I11" s="111">
+      <c r="I11" s="103">
         <v>147.45833333333334</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="107">
+      <c r="A12" s="99">
         <v>31814.833333333332</v>
       </c>
-      <c r="B12" s="107">
+      <c r="B12" s="99">
         <v>1814472.5833333333</v>
       </c>
-      <c r="C12" s="108">
+      <c r="C12" s="100">
         <v>2270.3166666666666</v>
       </c>
-      <c r="D12" s="109">
+      <c r="D12" s="101">
         <v>1.875</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="99">
         <v>1303234</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="99">
         <v>1138584</v>
       </c>
-      <c r="G12" s="110">
+      <c r="G12" s="102">
         <v>357.30250000000001</v>
       </c>
-      <c r="H12" s="111">
+      <c r="H12" s="103">
         <v>208.35</v>
       </c>
-      <c r="I12" s="111">
+      <c r="I12" s="103">
         <v>153.64166666666668</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="107">
+      <c r="A13" s="99">
         <v>34700.333333333336</v>
       </c>
-      <c r="B13" s="107">
+      <c r="B13" s="99">
         <v>1837068.9166666667</v>
       </c>
-      <c r="C13" s="108">
+      <c r="C13" s="100">
         <v>2287.0416666666665</v>
       </c>
-      <c r="D13" s="109">
+      <c r="D13" s="101">
         <v>1.75</v>
       </c>
-      <c r="E13" s="107">
+      <c r="E13" s="99">
         <v>1292899.0833333333</v>
       </c>
-      <c r="F13" s="107">
+      <c r="F13" s="99">
         <v>1223908.9166666667</v>
       </c>
-      <c r="G13" s="110">
+      <c r="G13" s="102">
         <v>376.06</v>
       </c>
-      <c r="H13" s="111">
+      <c r="H13" s="103">
         <v>215.49166666666667</v>
       </c>
-      <c r="I13" s="111">
+      <c r="I13" s="103">
         <v>158.45833333333334</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="107">
+      <c r="A14" s="99">
         <v>37479</v>
       </c>
-      <c r="B14" s="107">
+      <c r="B14" s="99">
         <v>1886857.25</v>
       </c>
-      <c r="C14" s="108">
+      <c r="C14" s="100">
         <v>2261.8666666666668</v>
       </c>
-      <c r="D14" s="109">
+      <c r="D14" s="101">
         <v>1.6</v>
       </c>
-      <c r="E14" s="107">
+      <c r="E14" s="99">
         <v>1359584.3333333333</v>
       </c>
-      <c r="F14" s="107">
+      <c r="F14" s="99">
         <v>1280851.9166666667</v>
       </c>
-      <c r="G14" s="110">
+      <c r="G14" s="102">
         <v>396.59500000000003</v>
       </c>
-      <c r="H14" s="111">
+      <c r="H14" s="103">
         <v>228.95833333333334</v>
       </c>
-      <c r="I14" s="111">
+      <c r="I14" s="103">
         <v>163.01666666666668</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="107">
+      <c r="A15" s="99">
         <v>40278.833333333336</v>
       </c>
-      <c r="B15" s="107">
+      <c r="B15" s="99">
         <v>1960528.8333333333</v>
       </c>
-      <c r="C15" s="108">
+      <c r="C15" s="100">
         <v>2511.5666666666666</v>
       </c>
-      <c r="D15" s="109">
+      <c r="D15" s="101">
         <v>1.5249999999999999</v>
       </c>
-      <c r="E15" s="107">
+      <c r="E15" s="99">
         <v>1436883.4166666667</v>
       </c>
-      <c r="F15" s="107">
+      <c r="F15" s="99">
         <v>1333472.4166666667</v>
       </c>
-      <c r="G15" s="110">
+      <c r="G15" s="102">
         <v>418.6225</v>
       </c>
-      <c r="H15" s="111">
+      <c r="H15" s="103">
         <v>244.29166666666666</v>
       </c>
-      <c r="I15" s="111">
+      <c r="I15" s="103">
         <v>168.96666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="107">
+      <c r="A16" s="99">
         <v>43550.75</v>
       </c>
-      <c r="B16" s="107">
+      <c r="B16" s="99">
         <v>2043902.3333333333</v>
       </c>
-      <c r="C16" s="108">
+      <c r="C16" s="100">
         <v>2594.3333333333335</v>
       </c>
-      <c r="D16" s="109">
+      <c r="D16" s="101">
         <v>1.375</v>
       </c>
-      <c r="E16" s="107">
+      <c r="E16" s="99">
         <v>1434971.1666666667</v>
       </c>
-      <c r="F16" s="107">
+      <c r="F16" s="99">
         <v>1389526.3333333333</v>
       </c>
-      <c r="G16" s="110">
+      <c r="G16" s="102">
         <v>437.95749999999998</v>
       </c>
-      <c r="H16" s="111">
+      <c r="H16" s="103">
         <v>252.67500000000001</v>
       </c>
-      <c r="I16" s="111">
+      <c r="I16" s="103">
         <v>174.07499999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="107">
+      <c r="A17" s="99">
         <v>69482.666666666672</v>
       </c>
-      <c r="B17" s="107">
+      <c r="B17" s="99">
         <v>1980857.9166666667</v>
       </c>
-      <c r="C17" s="108">
+      <c r="C17" s="100">
         <v>2539.35</v>
       </c>
-      <c r="D17" s="109">
+      <c r="D17" s="101">
         <v>0.97499999999999998</v>
       </c>
-      <c r="E17" s="107">
+      <c r="E17" s="99">
         <v>1392667.6666666667</v>
       </c>
-      <c r="F17" s="107">
+      <c r="F17" s="99">
         <v>1469766.5</v>
       </c>
-      <c r="G17" s="110">
+      <c r="G17" s="102">
         <v>460.45749999999998</v>
       </c>
-      <c r="H17" s="111">
+      <c r="H17" s="103">
         <v>260.33333333333331</v>
       </c>
-      <c r="I17" s="111">
+      <c r="I17" s="103">
         <v>178.38333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="107">
+      <c r="A18" s="99">
         <v>81401.75</v>
       </c>
-      <c r="B18" s="107">
+      <c r="B18" s="99">
         <v>2076959.8333333333</v>
       </c>
-      <c r="C18" s="108">
+      <c r="C18" s="100">
         <v>2523.6583333333333</v>
       </c>
-      <c r="D18" s="109">
+      <c r="D18" s="101">
         <v>0.9</v>
       </c>
-      <c r="E18" s="107">
+      <c r="E18" s="99">
         <v>1642944.4166666667</v>
       </c>
-      <c r="F18" s="107">
+      <c r="F18" s="99">
         <v>1588078.5833333333</v>
       </c>
-      <c r="G18" s="110">
+      <c r="G18" s="102">
         <v>523.17999999999995</v>
       </c>
-      <c r="H18" s="111">
+      <c r="H18" s="103">
         <v>270.04283333333331</v>
       </c>
-      <c r="I18" s="111">
+      <c r="I18" s="103">
         <v>187.14324999999999</v>
       </c>
     </row>
